--- a/GestureGame/GestureGame/dat/odai_ansi.xlsx
+++ b/GestureGame/GestureGame/dat/odai_ansi.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gesturegame_project\GestureGame\GestureGame\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4504E63F-67D3-4AEB-AB4F-03A45F9DD471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odai_ansi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">odai_ansi!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -415,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1337,759 +1341,974 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:E101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <f>COUNTIF($A$1:$A$101,A1)</f>
-        <v>1</v>
-      </c>
-      <c r="E1" t="str">
-        <f>A1</f>
-        <v>プリンセス</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <f>LEN(A2)</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">COUNTIF($A$1:$A$101,A2)</f>
+        <f>COUNTIF($A$2:$A$102,A2)</f>
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="1">A2</f>
+        <f>A2</f>
+        <v>傘</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <f>LEN(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">COUNTIF($A$2:$A$102,A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">A3</f>
+        <v>馬</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <f>LEN(A4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>猫</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>LEN(A5)</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>ゾウ</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>LEN(A6)</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>相撲</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>LEN(A7)</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>歌手</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f>LEN(A8)</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>料理</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <f>LEN(A9)</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>釣り</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <f>LEN(A10)</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>水泳</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <f>LEN(A11)</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>電車</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <f>LEN(A12)</f>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>タコ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <f>LEN(A13)</f>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>DJ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <f>LEN(A14)</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>演奏</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <f>LEN(A15)</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>ハト</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <f>LEN(A16)</f>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>野球</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <f>LEN(A17)</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>弓道</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <f>LEN(A18)</f>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>太鼓</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <f>LEN(A19)</f>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>焚火</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <f>LEN(A20)</f>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>電話</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <f>LEN(A21)</f>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>掃除</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <f>LEN(A22)</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>洗濯</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <f>LEN(A23)</f>
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>読書</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <f>LEN(A24)</f>
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>カメ</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>LEN(A25)</f>
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
         <v>モデル</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="B26">
+        <f>LEN(A26)</f>
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="1"/>
         <v>美容師</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="B27">
+        <f>LEN(A27)</f>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="1"/>
         <v>飛行機</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <f>LEN(A28)</f>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>五条悟</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <f>LEN(A29)</f>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>孫悟空</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <f>LEN(A30)</f>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>ギター</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <f>LEN(A31)</f>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>トトロ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <f>LEN(A32)</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>縄跳び</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <f>LEN(A33)</f>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>うさぎ</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <f>LEN(A34)</f>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>指揮者</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f>LEN(A35)</f>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>ルフィ</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <f>LEN(A36)</f>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>テニス</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <f>LEN(A37)</f>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>吹奏楽</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <f>LEN(A38)</f>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>カヌー</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <f>LEN(A39)</f>
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>雪合戦</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <f>LEN(A40)</f>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>自転車</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <f>LEN(A41)</f>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>ピアノ</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <f>LEN(A42)</f>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>ウマ娘</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <f>LEN(A43)</f>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>ゴジラ</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <f>LEN(A44)</f>
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>瓦割り</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45">
+        <f>LEN(A45)</f>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>消防士</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
+        <f>LEN(A46)</f>
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>手洗い</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <f>LEN(A47)</f>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>うがい</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <f>LEN(A48)</f>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>着替え</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49">
+        <f>LEN(A49)</f>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>歯磨き</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <f>LEN(A50)</f>
         <v>4</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>自動販売機</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>ドラえもん</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="1"/>
         <v>ぱっちぃ</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>ゾウ</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>ボーリング</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>アーチェリー</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>相撲</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
+      <c r="B51">
+        <f>LEN(A51)</f>
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
         <f t="shared" si="1"/>
         <v>金八先生</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>五条悟</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>小島よしお</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>孫悟空</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>フラダンス</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>歌手</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" t="str">
+      <c r="B52">
+        <f>LEN(A52)</f>
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
         <f t="shared" si="1"/>
         <v>ドラマー</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" t="str">
+      <c r="B53">
+        <f>LEN(A53)</f>
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
         <f t="shared" si="1"/>
         <v>円盤投げ</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>竈門炭治郎</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>ジョジョ立ち</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>ボクシング</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>バレーボール</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>ギター</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>料理</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>釣り</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>トトロ</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>バスケットボール</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>バドミントン</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>縄跳び</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>うさぎ</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>指揮者</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>なかやまきんにくん</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>クロちゃん</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>マッシュル</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>ルフィ</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>江戸川コナン</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>アリエル(ディズニー)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="B54">
+        <f>LEN(A54)</f>
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
         <f t="shared" si="1"/>
         <v>猫ミーム</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>38</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E40" t="str">
+      <c r="B55">
+        <f>LEN(A55)</f>
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
         <f t="shared" si="1"/>
         <v>サッカー</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v>テニス</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v>サンシャイン池崎</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>41</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E43" t="str">
+      <c r="B56">
+        <f>LEN(A56)</f>
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
         <f t="shared" si="1"/>
         <v>志村けん</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v>水泳</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v>吹奏楽</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v>電車</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v>アンパンマン</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>傘</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v>カヌー</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v>タコ</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v>とにかく明るい安村</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v>プリキュア</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v>DJ</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E54" t="str">
+      <c r="B57">
+        <f>LEN(A57)</f>
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
         <f t="shared" si="1"/>
         <v>ラッパー</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>ブルゾンちえみ</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>雪合戦</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>自転車</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f>LEN(A58)</f>
+        <v>4</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
@@ -2097,12 +2316,16 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
-        <v>ピアノ</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+        <v>星野アイ</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f>LEN(A59)</f>
+        <v>4</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
@@ -2110,12 +2333,16 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
-        <v>デヴィ夫人</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+        <v>初音ミク</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f>LEN(A60)</f>
+        <v>4</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
@@ -2123,12 +2350,16 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
-        <v>星野アイ</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+        <v>体操選手</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <f>LEN(A61)</f>
+        <v>4</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
@@ -2136,12 +2367,16 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
-        <v>ウマ娘</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+        <v>寿司職人</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <f>LEN(A62)</f>
+        <v>4</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
@@ -2149,12 +2384,16 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
-        <v>初音ミク</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ニワトリ</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <f>LEN(A63)</f>
+        <v>4</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
@@ -2162,12 +2401,16 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
-        <v>体操選手</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ラグビー</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="B64">
+        <f>LEN(A64)</f>
+        <v>4</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
@@ -2175,12 +2418,16 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
-        <v>演奏</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+        <v>酔っ払い</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>86</v>
+      </c>
+      <c r="B65">
+        <f>LEN(A65)</f>
+        <v>4</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
@@ -2188,38 +2435,50 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
-        <v>ハト</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+        <v>くしゃみ</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="B66">
+        <f>LEN(A66)</f>
+        <v>4</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D81" si="2">COUNTIF($A$1:$A$101,A66)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E81" si="3">A66</f>
-        <v>ドンキーコング</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>スキップ</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <f>LEN(A67)</f>
+        <v>4</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D67:D82" si="2">COUNTIF($A$2:$A$102,A67)</f>
         <v>1</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="3"/>
-        <v>馬</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" ref="E67:E82" si="3">A67</f>
+        <v>パソコン</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <f>LEN(A68)</f>
+        <v>4</v>
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
@@ -2227,12 +2486,16 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="3"/>
-        <v>オードリー春日</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+        <v>霹靂一閃</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <f>LEN(A69)</f>
+        <v>5</v>
       </c>
       <c r="D69">
         <f t="shared" si="2"/>
@@ -2240,12 +2503,16 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="3"/>
-        <v>ムスカ大佐</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+        <v>プリンセス</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <f>LEN(A70)</f>
+        <v>5</v>
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
@@ -2253,12 +2520,16 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="3"/>
-        <v>ゴジラ</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+        <v>自動販売機</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <f>LEN(A71)</f>
+        <v>5</v>
       </c>
       <c r="D71">
         <f t="shared" si="2"/>
@@ -2266,12 +2537,16 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="3"/>
-        <v>セイキンダンス</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ドラえもん</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <f>LEN(A72)</f>
+        <v>5</v>
       </c>
       <c r="D72">
         <f t="shared" si="2"/>
@@ -2279,12 +2554,16 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="3"/>
-        <v>うさぎ(ちいかわ)</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ボーリング</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <f>LEN(A73)</f>
+        <v>5</v>
       </c>
       <c r="D73">
         <f t="shared" si="2"/>
@@ -2292,12 +2571,16 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="3"/>
-        <v>寿司職人</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+        <v>小島よしお</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <f>LEN(A74)</f>
+        <v>5</v>
       </c>
       <c r="D74">
         <f t="shared" si="2"/>
@@ -2305,12 +2588,16 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="3"/>
-        <v>ニワトリ</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+        <v>フラダンス</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <f>LEN(A75)</f>
+        <v>5</v>
       </c>
       <c r="D75">
         <f t="shared" si="2"/>
@@ -2318,12 +2605,16 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="3"/>
-        <v>野球</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+        <v>竈門炭治郎</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="B76">
+        <f>LEN(A76)</f>
+        <v>5</v>
       </c>
       <c r="D76">
         <f t="shared" si="2"/>
@@ -2331,12 +2622,16 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="3"/>
-        <v>ラグビー</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ボクシング</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <f>LEN(A77)</f>
+        <v>5</v>
       </c>
       <c r="D77">
         <f t="shared" si="2"/>
@@ -2344,12 +2639,16 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="3"/>
-        <v>弓道</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+        <v>クロちゃん</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <f>LEN(A78)</f>
+        <v>5</v>
       </c>
       <c r="D78">
         <f t="shared" si="2"/>
@@ -2357,12 +2656,16 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="3"/>
-        <v>瓦割り</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+        <v>マッシュル</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <f>LEN(A79)</f>
+        <v>5</v>
       </c>
       <c r="D79">
         <f t="shared" si="2"/>
@@ -2370,12 +2673,16 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="3"/>
-        <v>サーフィン</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+        <v>プリキュア</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B80">
+        <f>LEN(A80)</f>
+        <v>5</v>
       </c>
       <c r="D80">
         <f t="shared" si="2"/>
@@ -2383,12 +2690,16 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="3"/>
-        <v>酔っ払い</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+        <v>デヴィ夫人</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="B81">
+        <f>LEN(A81)</f>
+        <v>5</v>
       </c>
       <c r="D81">
         <f t="shared" si="2"/>
@@ -2396,38 +2707,50 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="3"/>
-        <v>消防士</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ムスカ大佐</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <f>LEN(A82)</f>
+        <v>5</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D94" si="4">COUNTIF($A$1:$A$101,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" ref="E82:E94" si="5">A82</f>
-        <v>太鼓</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>サーフィン</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>82</v>
       </c>
+      <c r="B83">
+        <f>LEN(A83)</f>
+        <v>5</v>
+      </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D83:D95" si="4">COUNTIF($A$2:$A$102,A83)</f>
         <v>1</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E83:E95" si="5">A83</f>
         <v>バイオリン</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <f>LEN(A84)</f>
+        <v>5</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
@@ -2435,12 +2758,16 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
-        <v>焚火</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ジャンケン</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="B85">
+        <f>LEN(A85)</f>
+        <v>5</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
@@ -2448,12 +2775,16 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
-        <v>手洗い</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+        <v>レジギガス</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <f>LEN(A86)</f>
+        <v>6</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
@@ -2461,12 +2792,16 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
-        <v>うがい</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+        <v>アーチェリー</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <f>LEN(A87)</f>
+        <v>6</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
@@ -2474,12 +2809,16 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="5"/>
-        <v>くしゃみ</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ジョジョ立ち</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <f>LEN(A88)</f>
+        <v>6</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
@@ -2487,12 +2826,16 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
-        <v>ジャンケン</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+        <v>バレーボール</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>27</v>
+      </c>
+      <c r="B89">
+        <f>LEN(A89)</f>
+        <v>6</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
@@ -2500,12 +2843,16 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="5"/>
-        <v>スキップ</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+        <v>バドミントン</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>35</v>
+      </c>
+      <c r="B90">
+        <f>LEN(A90)</f>
+        <v>6</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
@@ -2513,12 +2860,16 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="5"/>
-        <v>電話</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+        <v>江戸川コナン</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="B91">
+        <f>LEN(A91)</f>
+        <v>6</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
@@ -2526,12 +2877,16 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="5"/>
-        <v>掃除</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+        <v>アンパンマン</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="B92">
+        <f>LEN(A92)</f>
+        <v>7</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
@@ -2539,12 +2894,16 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="5"/>
-        <v>洗濯</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ブルゾンちえみ</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>63</v>
+      </c>
+      <c r="B93">
+        <f>LEN(A93)</f>
+        <v>7</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
@@ -2552,12 +2911,16 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="5"/>
-        <v>読書</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+        <v>ドンキーコング</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>65</v>
+      </c>
+      <c r="B94">
+        <f>LEN(A94)</f>
+        <v>7</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
@@ -2565,38 +2928,50 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="5"/>
-        <v>パソコン</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+        <v>オードリー春日</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <f>LEN(A95)</f>
+        <v>7</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:D101" si="6">COUNTIF($A$1:$A$101,A95)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" ref="E95:E101" si="7">A95</f>
-        <v>着替え</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>セイキンダンス</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f>LEN(A96)</f>
+        <v>8</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D96:D102" si="6">COUNTIF($A$2:$A$102,A96)</f>
         <v>1</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="7"/>
-        <v>歯磨き</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" ref="E96:E102" si="7">A96</f>
+        <v>バスケットボール</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="B97">
+        <f>LEN(A97)</f>
+        <v>8</v>
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
@@ -2604,12 +2979,16 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="7"/>
-        <v>霹靂一閃</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+        <v>サンシャイン池崎</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>97</v>
+      </c>
+      <c r="B98">
+        <f>LEN(A98)</f>
+        <v>8</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
@@ -2620,9 +2999,13 @@
         <v>tiktoker</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <f>LEN(A99)</f>
+        <v>9</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
@@ -2630,12 +3013,16 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="7"/>
-        <v>レジギガス</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+        <v>なかやまきんにくん</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="B100">
+        <f>LEN(A100)</f>
+        <v>9</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
@@ -2643,12 +3030,16 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="7"/>
-        <v>猫</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+        <v>とにかく明るい安村</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+      <c r="B101">
+        <f>LEN(A101)</f>
+        <v>9</v>
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
@@ -2656,12 +3047,34 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="7"/>
-        <v>カメ</v>
+        <v>うさぎ(ちいかわ)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102">
+        <f>LEN(A102)</f>
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="7"/>
+        <v>アリエル(ディズニー)</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="D1:D101">
+  <conditionalFormatting sqref="D2:D102">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/GestureGame/GestureGame/dat/odai_ansi.xlsx
+++ b/GestureGame/GestureGame/dat/odai_ansi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gesturegame_project\GestureGame\GestureGame\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4504E63F-67D3-4AEB-AB4F-03A45F9DD471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534C7AC-DA0E-4A3B-9EAB-C27F690A301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odai_ansi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
   <si>
     <t>プリンセス</t>
   </si>
@@ -415,12 +415,415 @@
     <t>カメ</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>ハト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コアラ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>犬</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キリン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ライオン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>猿</t>
+    <rPh sb="0" eb="1">
+      <t>サル</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>たぬき</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヘビ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フクロウ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>クマ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ブタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オオカミ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>アヒル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヤギ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ハムスター</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カエル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ワニ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ゴリラ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カンガルー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>クワガタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ペンギン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ナマケモノ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マリオ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>永野</t>
+    <rPh sb="0" eb="2">
+      <t>ナガノ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドナルド・マクドナルド</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カービィ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>嵐</t>
+    <rPh sb="0" eb="1">
+      <t>アラシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>チーム友達</t>
+    <rPh sb="3" eb="5">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヘリコプター</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ロボット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>エスカレーター</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>車</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>バイク</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ボーリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>バレーボール</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>バスケットボール</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>釣り</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ギター</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>霹靂一閃</t>
+  </si>
+  <si>
+    <t>卓球</t>
+    <rPh sb="0" eb="2">
+      <t>タッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大縄跳び</t>
+    <rPh sb="0" eb="3">
+      <t>オオナワト</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お手玉</t>
+    <rPh sb="1" eb="3">
+      <t>テダマ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>編み物</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>餅つき</t>
+    <rPh sb="0" eb="1">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タップダンス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日本舞踊</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>盆踊り</t>
+    <rPh sb="0" eb="2">
+      <t>ボンオド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>金魚すくい</t>
+    <rPh sb="0" eb="2">
+      <t>キンギョ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>かき氷を食べる</t>
+    <rPh sb="2" eb="3">
+      <t>ゴオリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>懐中電灯を照らす</t>
+    <rPh sb="0" eb="4">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あやとり</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>紙飛行機を飛ばす</t>
+    <rPh sb="0" eb="4">
+      <t>カミヒコウキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ヤンキー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>平野ノラ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラノ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ステーキを食べる人</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ソムリエ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ゴイゴイスー!</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>林修先生</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤシオサム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ビートたけし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ニュースキャスター</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>天気予報し</t>
+    <rPh sb="0" eb="4">
+      <t>テンキヨホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>類人猿</t>
+    <rPh sb="0" eb="3">
+      <t>ルイジンエン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>アラレちゃん</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キキ(魔女の宅急便)</t>
+    <rPh sb="3" eb="5">
+      <t>マジョ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>タッキュウビン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カーネルおじさん</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コンビニ店員</t>
+    <rPh sb="4" eb="6">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>裁判長</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サザエさん</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +980,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1006,8 +1417,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E102"/>
+  <dimension ref="A2:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1355,11 +1769,14 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <f>LEN(A2)</f>
-        <v>1</v>
+        <f t="shared" ref="B2:B33" si="0">LEN(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF($A$2:$A$102,A2)</f>
+        <f>COUNTIF($A$2:$A$200,A2)</f>
         <v>1</v>
       </c>
       <c r="E2" t="str">
@@ -1372,15 +1789,18 @@
         <v>64</v>
       </c>
       <c r="B3">
-        <f>LEN(A3)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">COUNTIF($A$2:$A$102,A3)</f>
+        <f t="shared" ref="D3:D66" si="1">COUNTIF($A$2:$A$200,A3)</f>
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="1">A3</f>
+        <f t="shared" ref="E3:E66" si="2">A3</f>
         <v>馬</v>
       </c>
     </row>
@@ -1389,1692 +1809,3629 @@
         <v>99</v>
       </c>
       <c r="B4">
-        <f>LEN(A4)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>猫</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B5">
-        <f>LEN(A5)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>ゾウ</v>
+        <f t="shared" si="2"/>
+        <v>犬</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B6">
-        <f>LEN(A6)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>相撲</v>
+        <f t="shared" si="2"/>
+        <v>魚</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B7">
-        <f>LEN(A7)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>歌手</v>
+        <f t="shared" si="2"/>
+        <v>牛</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B8">
-        <f>LEN(A8)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>料理</v>
+        <f t="shared" si="2"/>
+        <v>猿</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B9">
-        <f>LEN(A9)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>釣り</v>
+        <f t="shared" si="2"/>
+        <v>嵐</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B10">
-        <f>LEN(A10)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>水泳</v>
+        <f t="shared" si="2"/>
+        <v>車</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <f>LEN(A11)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>電車</v>
+        <f t="shared" si="2"/>
+        <v>ゾウ</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <f>LEN(A12)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>タコ</v>
+        <f t="shared" si="2"/>
+        <v>相撲</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <f>LEN(A13)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>DJ</v>
+        <f t="shared" si="2"/>
+        <v>歌手</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <f>LEN(A14)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>演奏</v>
+        <f t="shared" si="2"/>
+        <v>料理</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <f>LEN(A15)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>ハト</v>
+        <f t="shared" si="2"/>
+        <v>釣り</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <f>LEN(A16)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>野球</v>
+        <f t="shared" si="2"/>
+        <v>水泳</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <f>LEN(A17)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>弓道</v>
+        <f t="shared" si="2"/>
+        <v>電車</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <f>LEN(A18)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>太鼓</v>
+        <f t="shared" si="2"/>
+        <v>タコ</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <f>LEN(A19)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>焚火</v>
+        <f t="shared" si="2"/>
+        <v>DJ</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <f>LEN(A20)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>電話</v>
+        <f t="shared" si="2"/>
+        <v>演奏</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <f>LEN(A21)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>掃除</v>
+        <f t="shared" si="2"/>
+        <v>ハト</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B22">
-        <f>LEN(A22)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>洗濯</v>
+        <f t="shared" si="2"/>
+        <v>野球</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <f>LEN(A23)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>読書</v>
+        <f t="shared" si="2"/>
+        <v>弓道</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B24">
-        <f>LEN(A24)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>カメ</v>
+        <f t="shared" si="2"/>
+        <v>太鼓</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B25">
-        <f>LEN(A25)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>モデル</v>
+        <f t="shared" si="2"/>
+        <v>焚火</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <f>LEN(A26)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>美容師</v>
+        <f t="shared" si="2"/>
+        <v>電話</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B27">
-        <f>LEN(A27)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>飛行機</v>
+        <f t="shared" si="2"/>
+        <v>掃除</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B28">
-        <f>LEN(A28)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>五条悟</v>
+        <f t="shared" si="2"/>
+        <v>洗濯</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B29">
-        <f>LEN(A29)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>孫悟空</v>
+        <f t="shared" si="2"/>
+        <v>読書</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <f>LEN(A30)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>ギター</v>
+        <f t="shared" si="2"/>
+        <v>カメ</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B31">
-        <f>LEN(A31)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>トトロ</v>
+        <f t="shared" si="2"/>
+        <v>ヘビ</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B32">
-        <f>LEN(A32)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>縄跳び</v>
+        <f t="shared" si="2"/>
+        <v>サイ</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B33">
-        <f>LEN(A33)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>うさぎ</v>
+        <f t="shared" si="2"/>
+        <v>クマ</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B34">
-        <f>LEN(A34)</f>
-        <v>3</v>
+        <f t="shared" ref="B34:B65" si="3">LEN(A34)</f>
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>指揮者</v>
+        <f t="shared" si="2"/>
+        <v>ブタ</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B35">
-        <f>LEN(A35)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>ルフィ</v>
+        <f t="shared" si="2"/>
+        <v>ヤギ</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B36">
-        <f>LEN(A36)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>テニス</v>
+        <f t="shared" si="2"/>
+        <v>カニ</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B37">
-        <f>LEN(A37)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>吹奏楽</v>
+        <f t="shared" si="2"/>
+        <v>ワニ</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B38">
-        <f>LEN(A38)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>カヌー</v>
+        <f t="shared" si="2"/>
+        <v>永野</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B39">
-        <f>LEN(A39)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v>雪合戦</v>
+        <f t="shared" si="2"/>
+        <v>弓道</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B40">
-        <f>LEN(A40)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v>自転車</v>
+        <f t="shared" si="2"/>
+        <v>釣り</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B41">
-        <f>LEN(A41)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v>ピアノ</v>
+        <f t="shared" si="2"/>
+        <v>電話</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B42">
-        <f>LEN(A42)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v>ウマ娘</v>
+        <f t="shared" si="2"/>
+        <v>ハト</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B43">
-        <f>LEN(A43)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v>ゴジラ</v>
+        <f t="shared" si="2"/>
+        <v>タコ</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B44">
-        <f>LEN(A44)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v>瓦割り</v>
+        <f t="shared" si="2"/>
+        <v>卓球</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <f>LEN(A45)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v>消防士</v>
+        <f t="shared" si="2"/>
+        <v>モデル</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <f>LEN(A46)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v>手洗い</v>
+        <f t="shared" si="2"/>
+        <v>美容師</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <f>LEN(A47)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v>うがい</v>
+        <f t="shared" si="2"/>
+        <v>飛行機</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <f>LEN(A48)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>着替え</v>
+        <f t="shared" si="2"/>
+        <v>五条悟</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <f>LEN(A49)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v>歯磨き</v>
+        <f t="shared" si="2"/>
+        <v>孫悟空</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <f>LEN(A50)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v>ぱっちぃ</v>
+        <f t="shared" si="2"/>
+        <v>ギター</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <f>LEN(A51)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v>金八先生</v>
+        <f t="shared" si="2"/>
+        <v>トトロ</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <f>LEN(A52)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v>ドラマー</v>
+        <f t="shared" si="2"/>
+        <v>縄跳び</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B53">
-        <f>LEN(A53)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v>円盤投げ</v>
+        <f t="shared" si="2"/>
+        <v>うさぎ</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <f>LEN(A54)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v>猫ミーム</v>
+        <f t="shared" si="2"/>
+        <v>指揮者</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <f>LEN(A55)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>サッカー</v>
+        <f t="shared" si="2"/>
+        <v>ルフィ</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56">
-        <f>LEN(A56)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>志村けん</v>
+        <f t="shared" si="2"/>
+        <v>テニス</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B57">
-        <f>LEN(A57)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>ラッパー</v>
+        <f t="shared" si="2"/>
+        <v>吹奏楽</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B58">
-        <f>LEN(A58)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v>星野アイ</v>
+        <f t="shared" si="2"/>
+        <v>カヌー</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B59">
-        <f>LEN(A59)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v>初音ミク</v>
+        <f t="shared" si="2"/>
+        <v>雪合戦</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <f>LEN(A60)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v>体操選手</v>
+        <f t="shared" si="2"/>
+        <v>自転車</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <f>LEN(A61)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>寿司職人</v>
+        <f t="shared" si="2"/>
+        <v>ピアノ</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <f>LEN(A62)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>ニワトリ</v>
+        <f t="shared" si="2"/>
+        <v>ウマ娘</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <f>LEN(A63)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>ラグビー</v>
+        <f t="shared" si="2"/>
+        <v>ゴジラ</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64">
-        <f>LEN(A64)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>酔っ払い</v>
+        <f t="shared" si="2"/>
+        <v>瓦割り</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B65">
-        <f>LEN(A65)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v>くしゃみ</v>
+        <f t="shared" si="2"/>
+        <v>消防士</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B66">
-        <f>LEN(A66)</f>
-        <v>4</v>
+        <f t="shared" ref="B66:B97" si="4">LEN(A66)</f>
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v>スキップ</v>
+        <f t="shared" si="2"/>
+        <v>手洗い</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B67">
-        <f>LEN(A67)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>65</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D82" si="2">COUNTIF($A$2:$A$102,A67)</f>
+        <f t="shared" ref="D67:D150" si="5">COUNTIF($A$2:$A$200,A67)</f>
         <v>1</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E82" si="3">A67</f>
-        <v>パソコン</v>
+        <f t="shared" ref="E67:E82" si="6">A67</f>
+        <v>うがい</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68">
-        <f>LEN(A68)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>霹靂一閃</v>
+        <f t="shared" si="6"/>
+        <v>着替え</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B69">
-        <f>LEN(A69)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>プリンセス</v>
+        <f t="shared" si="6"/>
+        <v>歯磨き</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B70">
-        <f>LEN(A70)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="3"/>
-        <v>自動販売機</v>
+        <f t="shared" si="6"/>
+        <v>コアラ</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B71">
-        <f>LEN(A71)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>69</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="3"/>
-        <v>ドラえもん</v>
+        <f t="shared" si="6"/>
+        <v>キリン</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B72">
-        <f>LEN(A72)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="3"/>
-        <v>ボーリング</v>
+        <f t="shared" si="6"/>
+        <v>たぬき</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B73">
-        <f>LEN(A73)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="3"/>
-        <v>小島よしお</v>
+        <f t="shared" si="6"/>
+        <v>アヒル</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B74">
-        <f>LEN(A74)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="3"/>
-        <v>フラダンス</v>
+        <f t="shared" si="6"/>
+        <v>カエル</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <f>LEN(A75)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="3"/>
-        <v>竈門炭治郎</v>
+        <f t="shared" si="6"/>
+        <v>ゴリラ</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B76">
-        <f>LEN(A76)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>74</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="3"/>
-        <v>ボクシング</v>
+        <f t="shared" si="6"/>
+        <v>マリオ</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B77">
-        <f>LEN(A77)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="3"/>
-        <v>クロちゃん</v>
+        <f t="shared" si="6"/>
+        <v>バイク</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <f>LEN(A78)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>76</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="3"/>
-        <v>マッシュル</v>
+        <f t="shared" si="6"/>
+        <v>雪合戦</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="B79">
-        <f>LEN(A79)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>77</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="3"/>
-        <v>プリキュア</v>
+        <f t="shared" si="6"/>
+        <v>モデル</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B80">
-        <f>LEN(A80)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>78</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="3"/>
-        <v>デヴィ夫人</v>
+        <f t="shared" si="6"/>
+        <v>ギター</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B81">
-        <f>LEN(A81)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="3"/>
-        <v>ムスカ大佐</v>
+        <f t="shared" si="6"/>
+        <v>キリン</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B82">
-        <f>LEN(A82)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="3"/>
-        <v>サーフィン</v>
+        <f t="shared" si="6"/>
+        <v>ゴリラ</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="B83">
-        <f>LEN(A83)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>81</v>
       </c>
       <c r="D83">
-        <f t="shared" ref="D83:D95" si="4">COUNTIF($A$2:$A$102,A83)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" ref="E83:E95" si="5">A83</f>
-        <v>バイオリン</v>
+        <f t="shared" ref="E83:E95" si="7">A83</f>
+        <v>お手玉</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B84">
-        <f>LEN(A84)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>82</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="5"/>
-        <v>ジャンケン</v>
+        <f t="shared" si="7"/>
+        <v>編み物</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B85">
-        <f>LEN(A85)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>83</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="5"/>
-        <v>レジギガス</v>
+        <f t="shared" si="7"/>
+        <v>餅つき</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="B86">
-        <f>LEN(A86)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>84</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="5"/>
-        <v>アーチェリー</v>
+        <f t="shared" si="7"/>
+        <v>盆踊り</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="B87">
-        <f>LEN(A87)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="5"/>
-        <v>ジョジョ立ち</v>
+        <f t="shared" si="7"/>
+        <v>類人猿</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="B88">
-        <f>LEN(A88)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>86</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="5"/>
-        <v>バレーボール</v>
+        <f t="shared" si="7"/>
+        <v>裁判長</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <f>LEN(A89)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="5"/>
-        <v>バドミントン</v>
+        <f t="shared" si="7"/>
+        <v>ぱっちぃ</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <f>LEN(A90)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>88</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="5"/>
-        <v>江戸川コナン</v>
+        <f t="shared" si="7"/>
+        <v>金八先生</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <f>LEN(A91)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="5"/>
-        <v>アンパンマン</v>
+        <f t="shared" si="7"/>
+        <v>ドラマー</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <f>LEN(A92)</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="5"/>
-        <v>ブルゾンちえみ</v>
+        <f t="shared" si="7"/>
+        <v>円盤投げ</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B93">
-        <f>LEN(A93)</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="5"/>
-        <v>ドンキーコング</v>
+        <f t="shared" si="7"/>
+        <v>猫ミーム</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B94">
-        <f>LEN(A94)</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="5"/>
-        <v>オードリー春日</v>
+        <f t="shared" si="7"/>
+        <v>サッカー</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B95">
-        <f>LEN(A95)</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>93</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="5"/>
-        <v>セイキンダンス</v>
+        <f t="shared" si="7"/>
+        <v>志村けん</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B96">
-        <f>LEN(A96)</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>94</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96:D102" si="6">COUNTIF($A$2:$A$102,A96)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" ref="E96:E102" si="7">A96</f>
-        <v>バスケットボール</v>
+        <f t="shared" ref="E96:E184" si="8">A96</f>
+        <v>ラッパー</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B97">
-        <f>LEN(A97)</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="7"/>
-        <v>サンシャイン池崎</v>
+        <f t="shared" si="8"/>
+        <v>星野アイ</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B98">
-        <f>LEN(A98)</f>
-        <v>8</v>
+        <f t="shared" ref="B98:B129" si="9">LEN(A98)</f>
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="7"/>
-        <v>tiktoker</v>
+        <f t="shared" si="8"/>
+        <v>初音ミク</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B99">
-        <f>LEN(A99)</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="7"/>
-        <v>なかやまきんにくん</v>
+        <f t="shared" si="8"/>
+        <v>体操選手</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B100">
-        <f>LEN(A100)</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="7"/>
-        <v>とにかく明るい安村</v>
+        <f t="shared" si="8"/>
+        <v>寿司職人</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B101">
-        <f>LEN(A101)</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="7"/>
-        <v>うさぎ(ちいかわ)</v>
+        <f t="shared" si="8"/>
+        <v>ニワトリ</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="8"/>
+        <v>ラグビー</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="8"/>
+        <v>酔っ払い</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="8"/>
+        <v>くしゃみ</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="8"/>
+        <v>スキップ</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="8"/>
+        <v>パソコン</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="8"/>
+        <v>霹靂一閃</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="8"/>
+        <v>ライオン</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>107</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="8"/>
+        <v>フクロウ</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="8"/>
+        <v>オオカミ</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="8"/>
+        <v>クワガタ</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="8"/>
+        <v>ペンギン</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="8"/>
+        <v>カービィ</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>112</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="8"/>
+        <v>ロボット</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>113</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="8"/>
+        <v>酔っ払い</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="8"/>
+        <v>くしゃみ</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="8"/>
+        <v>霹靂一閃</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>116</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="8"/>
+        <v>ペンギン</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="8"/>
+        <v>大縄跳び</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="8"/>
+        <v>日本舞踊</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="8"/>
+        <v>あやとり</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>120</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="8"/>
+        <v>ヤンキー</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="8"/>
+        <v>平野ノラ</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="8"/>
+        <v>ソムリエ</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>123</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="8"/>
+        <v>林修先生</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="8"/>
+        <v>プリンセス</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>125</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="8"/>
+        <v>自動販売機</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="8"/>
+        <v>ドラえもん</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>127</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="8"/>
+        <v>ボーリング</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B161" si="10">LEN(A130)</f>
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>128</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="8"/>
+        <v>小島よしお</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="8"/>
+        <v>フラダンス</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>130</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="8"/>
+        <v>竈門炭治郎</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>131</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="8"/>
+        <v>ボクシング</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>132</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="8"/>
+        <v>クロちゃん</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>133</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="8"/>
+        <v>マッシュル</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>134</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="8"/>
+        <v>プリキュア</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>135</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="8"/>
+        <v>デヴィ夫人</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="8"/>
+        <v>ムスカ大佐</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>137</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="8"/>
+        <v>サーフィン</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>138</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="8"/>
+        <v>バイオリン</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>87</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>139</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="8"/>
+        <v>ジャンケン</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>140</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="8"/>
+        <v>レジギガス</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>141</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="8"/>
+        <v>ハムスター</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>142</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="8"/>
+        <v>カンガルー</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>143</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="8"/>
+        <v>ナマケモノ</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>144</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="8"/>
+        <v>チーム友達</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>145</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="8"/>
+        <v>ボーリング</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>146</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="8"/>
+        <v>金魚すくい</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>147</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="8"/>
+        <v>天気予報し</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>148</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="8"/>
+        <v>サザエさん</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <f t="shared" ref="D151:D184" si="11">COUNTIF($A$2:$A$200,A151)</f>
+        <v>1</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="8"/>
+        <v>アーチェリー</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="8"/>
+        <v>ジョジョ立ち</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="8"/>
+        <v>バレーボール</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="8"/>
+        <v>バドミントン</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>153</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="8"/>
+        <v>江戸川コナン</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>154</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="8"/>
+        <v>アンパンマン</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="8"/>
+        <v>ヘリコプター</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="8"/>
+        <v>バレーボール</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>157</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="8"/>
+        <v>タップダンス</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="8"/>
+        <v>ビートたけし</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="8"/>
+        <v>アラレちゃん</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ref="B162:B193" si="12">LEN(A162)</f>
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="8"/>
+        <v>コンビニ店員</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="8"/>
+        <v>ブルゾンちえみ</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="8"/>
+        <v>ドンキーコング</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="8"/>
+        <v>オードリー春日</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>68</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="8"/>
+        <v>セイキンダンス</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>136</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>165</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="8"/>
+        <v>エスカレーター</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>166</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="8"/>
+        <v>かき氷を食べる</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>163</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>167</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="8"/>
+        <v>ゴイゴイスー!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="8"/>
+        <v>バスケットボール</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C171">
+        <v>169</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="8"/>
+        <v>サンシャイン池崎</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>97</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C172">
+        <v>170</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="8"/>
+        <v>tiktoker</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>171</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="8"/>
+        <v>バスケットボール</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>156</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>172</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="8"/>
+        <v>懐中電灯を照らす</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>173</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="8"/>
+        <v>紙飛行機を飛ばす</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>174</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="8"/>
+        <v>カーネルおじさん</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="8"/>
+        <v>なかやまきんにくん</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>176</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="8"/>
+        <v>とにかく明るい安村</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>69</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>177</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="8"/>
+        <v>うさぎ(ちいかわ)</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <v>178</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="8"/>
+        <v>ステーキを食べる人</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <v>179</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="8"/>
+        <v>ニュースキャスター</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>180</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="8"/>
+        <v>キキ(魔女の宅急便)</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
         <v>36</v>
       </c>
-      <c r="B102">
-        <f>LEN(A102)</f>
+      <c r="B183">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="D102">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="7"/>
+      <c r="C183">
+        <v>181</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="8"/>
         <v>アリエル(ディズニー)</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>130</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="8"/>
+        <v>ドナルド・マクドナルド</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B102">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B184">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="D2:D102">
+  <conditionalFormatting sqref="D2:D184">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/GestureGame/GestureGame/dat/odai_ansi.xlsx
+++ b/GestureGame/GestureGame/dat/odai_ansi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gesturegame_project\GestureGame\GestureGame\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534C7AC-DA0E-4A3B-9EAB-C27F690A301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF4936-1779-4057-88F5-897F14D101C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odai_ansi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="223">
   <si>
     <t>プリンセス</t>
   </si>
@@ -816,6 +816,285 @@
   </si>
   <si>
     <t>サザエさん</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勉強</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>交通警備</t>
+    <rPh sb="0" eb="4">
+      <t>コウツウケイビ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>木こり</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>肩たたき</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ウェイトレス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>逮捕</t>
+    <rPh sb="0" eb="2">
+      <t>タイホ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>闘牛</t>
+    <rPh sb="0" eb="2">
+      <t>トウギュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EXILE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>バーテンダー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>窓拭き</t>
+    <rPh sb="0" eb="2">
+      <t>マドフ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オタ芸</t>
+    <rPh sb="2" eb="3">
+      <t>ゲイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コイントス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>正岡子規</t>
+    <rPh sb="0" eb="4">
+      <t>マサオカシキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>眼鏡</t>
+    <rPh sb="0" eb="2">
+      <t>メガネ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>裁縫</t>
+    <rPh sb="0" eb="2">
+      <t>サイホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>レジ打ち</t>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>おばけ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マスターハンド</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>壁ドン</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モナ・リザ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>占い</t>
+    <rPh sb="0" eb="1">
+      <t>ウラナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ハンドパワー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>北斗百裂拳</t>
+    <rPh sb="0" eb="5">
+      <t>ホクトヒャクレツケン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カマキリ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マルモリダンス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>トリケラトプス拳</t>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ふなっしー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>浦島太郎</t>
+    <rPh sb="0" eb="4">
+      <t>ウラシマタロウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>桃太郎</t>
+    <rPh sb="0" eb="3">
+      <t>モモタロウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>金太郎</t>
+    <rPh sb="0" eb="3">
+      <t>キンタロウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>花咲かじいさん</t>
+    <rPh sb="0" eb="2">
+      <t>ハナサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>厚切りジェイソン</t>
+    <rPh sb="0" eb="2">
+      <t>アツギ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スパイダーマン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>行進</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>阿波踊り</t>
+    <rPh sb="0" eb="3">
+      <t>アワオド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>化粧</t>
+    <rPh sb="0" eb="2">
+      <t>ケショウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>歌舞伎</t>
+    <rPh sb="0" eb="3">
+      <t>カブキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>江南スタイル</t>
+    <rPh sb="0" eb="2">
+      <t>コウナン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ウルトラマン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>モグラ叩き</t>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カウボーイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フラフープ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>虫取り</t>
+    <rPh sb="0" eb="2">
+      <t>ムシト</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>レイザーラモンHG</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フラメンコ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コサックダンス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カズダンス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>平泳ぎ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラオヨ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1756,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E184"/>
+  <dimension ref="A2:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1769,14 +2048,14 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B33" si="0">LEN(A2)</f>
+        <f t="shared" ref="B2:B65" si="0">LEN(A2)</f>
         <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <f>COUNTIF($A$2:$A$200,A2)</f>
+        <f t="shared" ref="D2:D65" si="1">COUNTIF($A$2:$A$299,A2)</f>
         <v>1</v>
       </c>
       <c r="E2" t="str">
@@ -1796,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">COUNTIF($A$2:$A$200,A3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E3" t="str">
@@ -2409,7 +2688,7 @@
         <v>115</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" si="3">LEN(A34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C34">
@@ -2429,7 +2708,7 @@
         <v>118</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C35">
@@ -2449,7 +2728,7 @@
         <v>121</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C36">
@@ -2469,7 +2748,7 @@
         <v>122</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C37">
@@ -2489,7 +2768,7 @@
         <v>129</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C38">
@@ -2509,7 +2788,7 @@
         <v>75</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C39">
@@ -2529,7 +2808,7 @@
         <v>142</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C40">
@@ -2549,7 +2828,7 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C41">
@@ -2569,7 +2848,7 @@
         <v>101</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C42">
@@ -2589,7 +2868,7 @@
         <v>105</v>
       </c>
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C43">
@@ -2609,7 +2888,7 @@
         <v>146</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C44">
@@ -2626,2812 +2905,3628 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>勉強</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>逮捕</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>闘牛</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>眼鏡</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>裁縫</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>占い</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>行進</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>化粧</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>モデル</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>美容師</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>飛行機</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>五条悟</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v>孫悟空</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v>ギター</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v>トトロ</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v>縄跳び</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v>うさぎ</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>指揮者</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>ルフィ</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>テニス</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v>吹奏楽</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B129" si="3">LEN(A66)</f>
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="4">COUNTIF($A$2:$A$299,A66)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="2"/>
+        <v>カヌー</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C45">
-        <v>43</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v>モデル</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46">
+      <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E82" si="5">A67</f>
+        <v>雪合戦</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C46">
-        <v>44</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v>美容師</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47">
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="5"/>
+        <v>自転車</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C47">
-        <v>45</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>飛行機</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48">
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="5"/>
+        <v>ピアノ</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C48">
-        <v>46</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v>五条悟</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49">
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="5"/>
+        <v>ウマ娘</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C49">
-        <v>47</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v>孫悟空</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50">
+      <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="5"/>
+        <v>ゴジラ</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C50">
-        <v>48</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v>ギター</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51">
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="5"/>
+        <v>瓦割り</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C51">
-        <v>49</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v>トトロ</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52">
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="5"/>
+        <v>消防士</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C52">
-        <v>50</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v>縄跳び</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53">
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="5"/>
+        <v>手洗い</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>51</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="2"/>
-        <v>うさぎ</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54">
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="5"/>
+        <v>うがい</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C54">
-        <v>52</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="2"/>
-        <v>指揮者</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55">
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="5"/>
+        <v>着替え</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="2"/>
-        <v>ルフィ</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56">
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="5"/>
+        <v>歯磨き</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="2"/>
-        <v>テニス</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57">
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="5"/>
+        <v>コアラ</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C57">
-        <v>55</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="2"/>
-        <v>吹奏楽</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58">
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="5"/>
+        <v>キリン</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C58">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="2"/>
-        <v>カヌー</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59">
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="5"/>
+        <v>たぬき</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C59">
-        <v>57</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="2"/>
-        <v>雪合戦</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60">
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="5"/>
+        <v>アヒル</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C60">
-        <v>58</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="2"/>
-        <v>自転車</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61">
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="5"/>
+        <v>カエル</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C61">
-        <v>59</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="2"/>
-        <v>ピアノ</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62">
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ref="E83:E95" si="6">A83</f>
+        <v>ゴリラ</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C62">
-        <v>60</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="2"/>
-        <v>ウマ娘</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63">
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="6"/>
+        <v>マリオ</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>61</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>ゴジラ</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64">
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="6"/>
+        <v>バイク</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>62</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="2"/>
-        <v>瓦割り</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65">
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="6"/>
+        <v>雪合戦</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>63</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="2"/>
-        <v>消防士</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B97" si="4">LEN(A66)</f>
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="6"/>
+        <v>モデル</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C66">
-        <v>64</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="2"/>
-        <v>手洗い</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67">
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="6"/>
+        <v>ギター</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C67">
-        <v>65</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D150" si="5">COUNTIF($A$2:$A$200,A67)</f>
-        <v>1</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E82" si="6">A67</f>
-        <v>うがい</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68">
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>66</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="6"/>
-        <v>着替え</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>67</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="6"/>
-        <v>歯磨き</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C70">
-        <v>68</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="6"/>
-        <v>コアラ</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>69</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E71" t="str">
+        <v>2</v>
+      </c>
+      <c r="E89" t="str">
         <f t="shared" si="6"/>
         <v>キリン</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>70</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="6"/>
-        <v>たぬき</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>71</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="6"/>
-        <v>アヒル</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>72</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="6"/>
-        <v>カエル</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C75">
-        <v>73</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E75" t="str">
+        <v>2</v>
+      </c>
+      <c r="E90" t="str">
         <f t="shared" si="6"/>
         <v>ゴリラ</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>74</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="6"/>
-        <v>マリオ</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>75</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="6"/>
-        <v>バイク</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C78">
-        <v>76</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="6"/>
-        <v>雪合戦</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C79">
-        <v>77</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="6"/>
-        <v>モデル</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="6"/>
-        <v>ギター</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>79</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="6"/>
-        <v>キリン</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>80</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="6"/>
-        <v>ゴリラ</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>148</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>81</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" ref="E83:E95" si="7">A83</f>
-        <v>お手玉</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <v>82</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="7"/>
-        <v>編み物</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C85">
-        <v>83</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="7"/>
-        <v>餅つき</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>84</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="7"/>
-        <v>盆踊り</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>85</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="7"/>
-        <v>類人猿</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>86</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="7"/>
-        <v>裁判長</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C89">
-        <v>87</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="7"/>
-        <v>ぱっちぃ</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>88</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="7"/>
-        <v>金八先生</v>
-      </c>
-    </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>89</v>
       </c>
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="7"/>
-        <v>ドラマー</v>
+        <f t="shared" si="6"/>
+        <v>お手玉</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>90</v>
       </c>
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="7"/>
-        <v>円盤投げ</v>
+        <f t="shared" si="6"/>
+        <v>編み物</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>91</v>
       </c>
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="7"/>
-        <v>猫ミーム</v>
+        <f t="shared" si="6"/>
+        <v>餅つき</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>92</v>
       </c>
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="7"/>
-        <v>サッカー</v>
+        <f t="shared" si="6"/>
+        <v>盆踊り</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>93</v>
       </c>
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="7"/>
-        <v>志村けん</v>
+        <f t="shared" si="6"/>
+        <v>類人猿</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>94</v>
       </c>
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" ref="E96:E184" si="8">A96</f>
-        <v>ラッパー</v>
+        <f t="shared" ref="E96:E232" si="7">A96</f>
+        <v>裁判長</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>95</v>
       </c>
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="8"/>
-        <v>星野アイ</v>
+        <f t="shared" si="7"/>
+        <v>木こり</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:B129" si="9">LEN(A98)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>96</v>
       </c>
       <c r="D98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="8"/>
-        <v>初音ミク</v>
+        <f t="shared" si="7"/>
+        <v>窓拭き</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="B99">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="8"/>
-        <v>体操選手</v>
+        <f t="shared" si="7"/>
+        <v>オタ芸</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="B100">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="8"/>
-        <v>寿司職人</v>
+        <f t="shared" si="7"/>
+        <v>おばけ</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="B101">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C101">
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="8"/>
-        <v>ニワトリ</v>
+        <f t="shared" si="7"/>
+        <v>壁ドン</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="B102">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="8"/>
-        <v>ラグビー</v>
+        <f t="shared" si="7"/>
+        <v>桃太郎</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="B103">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="8"/>
-        <v>酔っ払い</v>
+        <f t="shared" si="7"/>
+        <v>金太郎</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="B104">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="8"/>
-        <v>くしゃみ</v>
+        <f t="shared" si="7"/>
+        <v>歌舞伎</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="B105">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="8"/>
-        <v>スキップ</v>
+        <f t="shared" si="7"/>
+        <v>虫取り</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="B106">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="8"/>
-        <v>パソコン</v>
+        <f t="shared" si="7"/>
+        <v>平泳ぎ</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C107">
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="8"/>
-        <v>霹靂一閃</v>
+        <f t="shared" si="7"/>
+        <v>ぱっちぃ</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C108">
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="8"/>
-        <v>ライオン</v>
+        <f t="shared" si="7"/>
+        <v>金八先生</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="B109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C109">
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="8"/>
-        <v>フクロウ</v>
+        <f t="shared" si="7"/>
+        <v>ドラマー</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C110">
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="8"/>
-        <v>オオカミ</v>
+        <f t="shared" si="7"/>
+        <v>円盤投げ</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C111">
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="8"/>
-        <v>クワガタ</v>
+        <f t="shared" si="7"/>
+        <v>猫ミーム</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C112">
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="8"/>
-        <v>ペンギン</v>
+        <f t="shared" si="7"/>
+        <v>サッカー</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C113">
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="8"/>
-        <v>カービィ</v>
+        <f t="shared" si="7"/>
+        <v>志村けん</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C114">
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="8"/>
-        <v>ロボット</v>
+        <f t="shared" si="7"/>
+        <v>ラッパー</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C115">
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="8"/>
-        <v>酔っ払い</v>
+        <f t="shared" si="7"/>
+        <v>星野アイ</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C116">
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="8"/>
-        <v>くしゃみ</v>
+        <f t="shared" si="7"/>
+        <v>初音ミク</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
-        <v>145</v>
+      <c r="A117" t="s">
+        <v>60</v>
       </c>
       <c r="B117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C117">
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="8"/>
-        <v>霹靂一閃</v>
+        <f t="shared" si="7"/>
+        <v>体操選手</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C118">
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="8"/>
-        <v>ペンギン</v>
+        <f t="shared" si="7"/>
+        <v>寿司職人</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="B119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C119">
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="8"/>
-        <v>大縄跳び</v>
+        <f t="shared" si="7"/>
+        <v>ニワトリ</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C120">
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="8"/>
-        <v>日本舞踊</v>
+        <f t="shared" si="7"/>
+        <v>ラグビー</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="B121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C121">
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="8"/>
-        <v>あやとり</v>
+        <f t="shared" si="7"/>
+        <v>酔っ払い</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C122">
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="8"/>
-        <v>ヤンキー</v>
+        <f t="shared" si="7"/>
+        <v>くしゃみ</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C123">
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="8"/>
-        <v>平野ノラ</v>
+        <f t="shared" si="7"/>
+        <v>スキップ</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="B124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C124">
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="8"/>
-        <v>ソムリエ</v>
+        <f t="shared" si="7"/>
+        <v>パソコン</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C125">
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="8"/>
-        <v>林修先生</v>
+        <f t="shared" si="7"/>
+        <v>霹靂一閃</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B126">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C126">
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="8"/>
-        <v>プリンセス</v>
+        <f t="shared" si="7"/>
+        <v>ライオン</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="3"/>
         <v>4</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="9"/>
-        <v>5</v>
       </c>
       <c r="C127">
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="8"/>
-        <v>自動販売機</v>
+        <f t="shared" si="7"/>
+        <v>フクロウ</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B128">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C128">
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="8"/>
-        <v>ドラえもん</v>
+        <f t="shared" si="7"/>
+        <v>オオカミ</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="B129">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="C129">
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="8"/>
-        <v>ボーリング</v>
+        <f t="shared" si="7"/>
+        <v>クワガタ</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B161" si="10">LEN(A130)</f>
-        <v>5</v>
+        <f t="shared" ref="B130:B193" si="8">LEN(A130)</f>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="D130:D193" si="9">COUNTIF($A$2:$A$299,A130)</f>
+        <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="8"/>
-        <v>小島よしお</v>
+        <f t="shared" si="7"/>
+        <v>ペンギン</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C131">
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="8"/>
-        <v>フラダンス</v>
+        <f t="shared" si="7"/>
+        <v>カービィ</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B132">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C132">
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="8"/>
-        <v>竈門炭治郎</v>
+        <f t="shared" si="7"/>
+        <v>ロボット</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B133">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="8"/>
-        <v>ボクシング</v>
+        <f t="shared" si="7"/>
+        <v>酔っ払い</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B134">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>132</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E134" t="str">
+        <f t="shared" si="7"/>
+        <v>くしゃみ</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135">
         <f t="shared" si="8"/>
-        <v>クロちゃん</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>33</v>
-      </c>
-      <c r="B135">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>133</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="8"/>
-        <v>マッシュル</v>
+        <f t="shared" si="7"/>
+        <v>霹靂一閃</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B136">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C136">
         <v>134</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="8"/>
-        <v>プリキュア</v>
+        <f t="shared" si="7"/>
+        <v>ペンギン</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B137">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>135</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="8"/>
-        <v>デヴィ夫人</v>
+        <f t="shared" si="7"/>
+        <v>大縄跳び</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B138">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>136</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="8"/>
-        <v>ムスカ大佐</v>
+        <f t="shared" si="7"/>
+        <v>日本舞踊</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B139">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>137</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="8"/>
-        <v>サーフィン</v>
+        <f t="shared" si="7"/>
+        <v>あやとり</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B140">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>138</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="8"/>
-        <v>バイオリン</v>
+        <f t="shared" si="7"/>
+        <v>ヤンキー</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B141">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>139</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="8"/>
-        <v>ジャンケン</v>
+        <f t="shared" si="7"/>
+        <v>平野ノラ</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B142">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>140</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="8"/>
-        <v>レジギガス</v>
+        <f t="shared" si="7"/>
+        <v>ソムリエ</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B143">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C143">
         <v>141</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="8"/>
-        <v>ハムスター</v>
+        <f t="shared" si="7"/>
+        <v>林修先生</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="B144">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C144">
         <v>142</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="8"/>
-        <v>カンガルー</v>
+        <f t="shared" si="7"/>
+        <v>交通警備</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="B145">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C145">
         <v>143</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="8"/>
-        <v>ナマケモノ</v>
+        <f t="shared" si="7"/>
+        <v>肩たたき</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="B146">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C146">
         <v>144</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="8"/>
-        <v>チーム友達</v>
+        <f t="shared" si="7"/>
+        <v>浦島太郎</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B147">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C147">
         <v>145</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="8"/>
-        <v>ボーリング</v>
+        <f t="shared" si="7"/>
+        <v>正岡子規</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B148">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C148">
         <v>146</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="8"/>
-        <v>金魚すくい</v>
+        <f t="shared" si="7"/>
+        <v>レジ打ち</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B149">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C149">
         <v>147</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="8"/>
-        <v>天気予報し</v>
+        <f t="shared" si="7"/>
+        <v>カマキリ</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B150">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="C150">
         <v>148</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="8"/>
-        <v>サザエさん</v>
+        <f t="shared" si="7"/>
+        <v>阿波踊り</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="7"/>
+        <v>プリンセス</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="7"/>
+        <v>自動販売機</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="7"/>
+        <v>ドラえもん</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="7"/>
+        <v>ボーリング</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>153</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="7"/>
+        <v>小島よしお</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>154</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="7"/>
+        <v>フラダンス</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="7"/>
+        <v>竈門炭治郎</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="7"/>
+        <v>ボクシング</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>157</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="7"/>
+        <v>クロちゃん</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="7"/>
+        <v>マッシュル</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="7"/>
+        <v>プリキュア</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="7"/>
+        <v>デヴィ夫人</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="7"/>
+        <v>ムスカ大佐</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>77</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="7"/>
+        <v>サーフィン</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>82</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="7"/>
+        <v>バイオリン</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="7"/>
+        <v>ジャンケン</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>165</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="7"/>
+        <v>レジギガス</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>119</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>166</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="7"/>
+        <v>ハムスター</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>124</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>167</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="7"/>
+        <v>カンガルー</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>127</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="7"/>
+        <v>ナマケモノ</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>169</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="7"/>
+        <v>チーム友達</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>139</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>170</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="7"/>
+        <v>ボーリング</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>171</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="7"/>
+        <v>金魚すくい</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>172</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="7"/>
+        <v>天気予報し</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>173</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="7"/>
+        <v>サザエさん</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>174</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="7"/>
+        <v>EXILE</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="7"/>
+        <v>コイントス</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>176</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="7"/>
+        <v>モナ・リザ</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>177</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="7"/>
+        <v>北斗百裂拳</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>178</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="7"/>
+        <v>ふなっしー</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>214</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>179</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="7"/>
+        <v>モグラ叩き</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>215</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>180</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="7"/>
+        <v>カウボーイ</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>216</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>181</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="7"/>
+        <v>フラフープ</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>219</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E184" t="str">
+        <f t="shared" si="7"/>
+        <v>フラメンコ</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>221</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="7"/>
+        <v>カズダンス</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
         <v>9</v>
       </c>
-      <c r="B151">
+      <c r="B186">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="7"/>
+        <v>アーチェリー</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="7"/>
+        <v>ジョジョ立ち</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="7"/>
+        <v>バレーボール</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="7"/>
+        <v>バドミントン</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="7"/>
+        <v>江戸川コナン</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="7"/>
+        <v>アンパンマン</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>134</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="7"/>
+        <v>ヘリコプター</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="7"/>
+        <v>バレーボール</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>151</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ref="B194:B257" si="10">LEN(A194)</f>
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <f t="shared" ref="D194:D232" si="11">COUNTIF($A$2:$A$299,A194)</f>
+        <v>1</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="7"/>
+        <v>タップダンス</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>165</v>
+      </c>
+      <c r="B195">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C151">
-        <v>149</v>
-      </c>
-      <c r="D151">
-        <f t="shared" ref="D151:D184" si="11">COUNTIF($A$2:$A$200,A151)</f>
-        <v>1</v>
-      </c>
-      <c r="E151" t="str">
-        <f t="shared" si="8"/>
-        <v>アーチェリー</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152">
+      <c r="D195">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="7"/>
+        <v>ビートたけし</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C152">
-        <v>150</v>
-      </c>
-      <c r="D152">
+      <c r="D196">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E152" t="str">
-        <f t="shared" si="8"/>
-        <v>ジョジョ立ち</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153">
+      <c r="E196" t="str">
+        <f t="shared" si="7"/>
+        <v>アラレちゃん</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>172</v>
+      </c>
+      <c r="B197">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C153">
-        <v>151</v>
-      </c>
-      <c r="D153">
+      <c r="D197">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="E153" t="str">
-        <f t="shared" si="8"/>
-        <v>バレーボール</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
-        <v>27</v>
-      </c>
-      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="7"/>
+        <v>コンビニ店員</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>179</v>
+      </c>
+      <c r="B198">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C154">
-        <v>152</v>
-      </c>
-      <c r="D154">
+      <c r="D198">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="8"/>
-        <v>バドミントン</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155">
+      <c r="E198" t="str">
+        <f t="shared" si="7"/>
+        <v>ウェイトレス</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>183</v>
+      </c>
+      <c r="B199">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C155">
-        <v>153</v>
-      </c>
-      <c r="D155">
+      <c r="D199">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E155" t="str">
-        <f t="shared" si="8"/>
-        <v>江戸川コナン</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156">
+      <c r="E199" t="str">
+        <f t="shared" si="7"/>
+        <v>バーテンダー</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C156">
-        <v>154</v>
-      </c>
-      <c r="D156">
+      <c r="D200">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E156" t="str">
-        <f t="shared" si="8"/>
-        <v>アンパンマン</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>134</v>
-      </c>
-      <c r="B157">
+      <c r="E200" t="str">
+        <f t="shared" si="7"/>
+        <v>ハンドパワー</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C157">
-        <v>155</v>
-      </c>
-      <c r="D157">
+      <c r="D201">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E157" t="str">
-        <f t="shared" si="8"/>
-        <v>ヘリコプター</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>140</v>
-      </c>
-      <c r="B158">
+      <c r="E201" t="str">
+        <f t="shared" si="7"/>
+        <v>江南スタイル</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="C158">
+      <c r="D202">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="7"/>
+        <v>ウルトラマン</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="7"/>
+        <v>ブルゾンちえみ</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>63</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="7"/>
+        <v>ドンキーコング</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="7"/>
+        <v>オードリー春日</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>68</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="7"/>
+        <v>セイキンダンス</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>136</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="7"/>
+        <v>エスカレーター</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>155</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="7"/>
+        <v>かき氷を食べる</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>163</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="7"/>
+        <v>ゴイゴイスー!</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="7"/>
+        <v>マスターハンド</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>199</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="7"/>
+        <v>マルモリダンス</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>205</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="7"/>
+        <v>花咲かじいさん</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="7"/>
+        <v>スパイダーマン</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="7"/>
+        <v>コサックダンス</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>26</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="7"/>
+        <v>バスケットボール</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="7"/>
+        <v>サンシャイン池崎</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>97</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="7"/>
+        <v>tiktoker</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>141</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="7"/>
+        <v>バスケットボール</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
         <v>156</v>
       </c>
-      <c r="D158">
+      <c r="B219">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D219">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="8"/>
-        <v>バレーボール</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>151</v>
-      </c>
-      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="7"/>
+        <v>懐中電灯を照らす</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>158</v>
+      </c>
+      <c r="B220">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="C159">
-        <v>157</v>
-      </c>
-      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="D220">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E159" t="str">
-        <f t="shared" si="8"/>
-        <v>タップダンス</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>165</v>
-      </c>
-      <c r="B160">
+      <c r="E220" t="str">
+        <f t="shared" si="7"/>
+        <v>紙飛行機を飛ばす</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>171</v>
+      </c>
+      <c r="B221">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="C160">
-        <v>158</v>
-      </c>
-      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="D221">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E160" t="str">
-        <f t="shared" si="8"/>
-        <v>ビートたけし</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161">
+      <c r="E221" t="str">
+        <f t="shared" si="7"/>
+        <v>カーネルおじさん</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>200</v>
+      </c>
+      <c r="B222">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="C161">
-        <v>159</v>
-      </c>
-      <c r="D161">
+        <v>8</v>
+      </c>
+      <c r="D222">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E161" t="str">
-        <f t="shared" si="8"/>
-        <v>アラレちゃん</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>172</v>
-      </c>
-      <c r="B162">
-        <f t="shared" ref="B162:B193" si="12">LEN(A162)</f>
-        <v>6</v>
-      </c>
-      <c r="C162">
-        <v>160</v>
-      </c>
-      <c r="D162">
+      <c r="E222" t="str">
+        <f t="shared" si="7"/>
+        <v>トリケラトプス拳</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>206</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D223">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E162" t="str">
-        <f t="shared" si="8"/>
-        <v>コンビニ店員</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>53</v>
-      </c>
-      <c r="B163">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C163">
+      <c r="E223" t="str">
+        <f t="shared" si="7"/>
+        <v>厚切りジェイソン</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="7"/>
+        <v>なかやまきんにくん</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>49</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="7"/>
+        <v>とにかく明るい安村</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>69</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E226" t="str">
+        <f t="shared" si="7"/>
+        <v>うさぎ(ちいかわ)</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
         <v>161</v>
       </c>
-      <c r="D163">
+      <c r="B227">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D227">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E163" t="str">
-        <f t="shared" si="8"/>
-        <v>ブルゾンちえみ</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>63</v>
-      </c>
-      <c r="B164">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C164">
-        <v>162</v>
-      </c>
-      <c r="D164">
+      <c r="E227" t="str">
+        <f t="shared" si="7"/>
+        <v>ステーキを食べる人</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>166</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D228">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E164" t="str">
-        <f t="shared" si="8"/>
-        <v>ドンキーコング</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>65</v>
-      </c>
-      <c r="B165">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C165">
-        <v>163</v>
-      </c>
-      <c r="D165">
+      <c r="E228" t="str">
+        <f t="shared" si="7"/>
+        <v>ニュースキャスター</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>218</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D229">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E165" t="str">
-        <f t="shared" si="8"/>
-        <v>オードリー春日</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
-        <v>68</v>
-      </c>
-      <c r="B166">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C166">
-        <v>164</v>
-      </c>
-      <c r="D166">
+      <c r="E229" t="str">
+        <f t="shared" si="7"/>
+        <v>レイザーラモンHG</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>170</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D230">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E166" t="str">
-        <f t="shared" si="8"/>
-        <v>セイキンダンス</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C167">
-        <v>165</v>
-      </c>
-      <c r="D167">
+      <c r="E230" t="str">
+        <f t="shared" si="7"/>
+        <v>キキ(魔女の宅急便)</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D231">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E167" t="str">
-        <f t="shared" si="8"/>
-        <v>エスカレーター</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>155</v>
-      </c>
-      <c r="B168">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C168">
-        <v>166</v>
-      </c>
-      <c r="D168">
+      <c r="E231" t="str">
+        <f t="shared" si="7"/>
+        <v>アリエル(ディズニー)</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>130</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D232">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E168" t="str">
-        <f t="shared" si="8"/>
-        <v>かき氷を食べる</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>163</v>
-      </c>
-      <c r="B169">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C169">
-        <v>167</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E169" t="str">
-        <f t="shared" si="8"/>
-        <v>ゴイゴイスー!</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>26</v>
-      </c>
-      <c r="B170">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C170">
-        <v>168</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="E170" t="str">
-        <f t="shared" si="8"/>
-        <v>バスケットボール</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C171">
-        <v>169</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E171" t="str">
-        <f t="shared" si="8"/>
-        <v>サンシャイン池崎</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>97</v>
-      </c>
-      <c r="B172">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C172">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E172" t="str">
-        <f t="shared" si="8"/>
-        <v>tiktoker</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>141</v>
-      </c>
-      <c r="B173">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C173">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="E173" t="str">
-        <f t="shared" si="8"/>
-        <v>バスケットボール</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>156</v>
-      </c>
-      <c r="B174">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C174">
-        <v>172</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="8"/>
-        <v>懐中電灯を照らす</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>158</v>
-      </c>
-      <c r="B175">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C175">
-        <v>173</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="8"/>
-        <v>紙飛行機を飛ばす</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>171</v>
-      </c>
-      <c r="B176">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C176">
-        <v>174</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="8"/>
-        <v>カーネルおじさん</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>31</v>
-      </c>
-      <c r="B177">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C177">
-        <v>175</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="8"/>
-        <v>なかやまきんにくん</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>49</v>
-      </c>
-      <c r="B178">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C178">
-        <v>176</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="8"/>
-        <v>とにかく明るい安村</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>69</v>
-      </c>
-      <c r="B179">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C179">
-        <v>177</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E179" t="str">
-        <f t="shared" si="8"/>
-        <v>うさぎ(ちいかわ)</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>161</v>
-      </c>
-      <c r="B180">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C180">
-        <v>178</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E180" t="str">
-        <f t="shared" si="8"/>
-        <v>ステーキを食べる人</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>166</v>
-      </c>
-      <c r="B181">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C181">
-        <v>179</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E181" t="str">
-        <f t="shared" si="8"/>
-        <v>ニュースキャスター</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>170</v>
-      </c>
-      <c r="B182">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="C182">
-        <v>180</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E182" t="str">
-        <f t="shared" si="8"/>
-        <v>キキ(魔女の宅急便)</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="C183">
-        <v>181</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E183" t="str">
-        <f t="shared" si="8"/>
-        <v>アリエル(ディズニー)</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
-        <v>130</v>
-      </c>
-      <c r="B184">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="C184">
-        <v>182</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E184" t="str">
-        <f t="shared" si="8"/>
+      <c r="E232" t="str">
+        <f t="shared" si="7"/>
         <v>ドナルド・マクドナルド</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B184">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B232">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="D2:D184">
+  <conditionalFormatting sqref="D2:D232">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/GestureGame/GestureGame/dat/odai_ansi.xlsx
+++ b/GestureGame/GestureGame/dat/odai_ansi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gesturegame_project\GestureGame\GestureGame\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF4936-1779-4057-88F5-897F14D101C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12DFBA-B90D-4338-A10C-6997FDDD2F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,10 +400,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>tiktoker</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>レジギガス</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1095,6 +1091,10 @@
     <rPh sb="0" eb="2">
       <t>ヒラオヨ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TikToker</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2038,7 +2038,7 @@
   <dimension ref="A2:E232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A232"/>
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92">
         <f t="shared" si="3"/>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93">
         <f t="shared" si="3"/>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94">
         <f t="shared" si="3"/>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95">
         <f t="shared" si="3"/>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B96">
         <f t="shared" si="3"/>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97">
         <f t="shared" si="3"/>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B98">
         <f t="shared" si="3"/>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B99">
         <f t="shared" si="3"/>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100">
         <f t="shared" si="3"/>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B101">
         <f t="shared" si="3"/>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102">
         <f t="shared" si="3"/>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104">
         <f t="shared" si="3"/>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B105">
         <f t="shared" si="3"/>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B106">
         <f t="shared" si="3"/>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126">
         <f t="shared" si="3"/>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B127">
         <f t="shared" si="3"/>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128">
         <f t="shared" si="3"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <f t="shared" si="3"/>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <f t="shared" ref="B130:B193" si="8">LEN(A130)</f>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <f t="shared" si="8"/>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <f t="shared" si="8"/>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135">
         <f t="shared" si="8"/>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B136">
         <f t="shared" si="8"/>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137">
         <f t="shared" si="8"/>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B138">
         <f t="shared" si="8"/>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139">
         <f t="shared" si="8"/>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140">
         <f t="shared" si="8"/>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B141">
         <f t="shared" si="8"/>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B142">
         <f t="shared" si="8"/>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B143">
         <f t="shared" si="8"/>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B144">
         <f t="shared" si="8"/>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B145">
         <f t="shared" si="8"/>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146">
         <f t="shared" si="8"/>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <f t="shared" si="8"/>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B148">
         <f t="shared" si="8"/>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B149">
         <f t="shared" si="8"/>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B150">
         <f t="shared" si="8"/>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B167">
         <f t="shared" si="8"/>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B168">
         <f t="shared" si="8"/>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B169">
         <f t="shared" si="8"/>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B170">
         <f t="shared" si="8"/>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B171">
         <f t="shared" si="8"/>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172">
         <f t="shared" si="8"/>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B173">
         <f t="shared" si="8"/>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B174">
         <f t="shared" si="8"/>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <f t="shared" si="8"/>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176">
         <f t="shared" si="8"/>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177">
         <f t="shared" si="8"/>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B178">
         <f t="shared" si="8"/>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B179">
         <f t="shared" si="8"/>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B180">
         <f t="shared" si="8"/>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B181">
         <f t="shared" si="8"/>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B182">
         <f t="shared" si="8"/>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B183">
         <f t="shared" si="8"/>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B184">
         <f t="shared" si="8"/>
@@ -5705,12 +5705,15 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B185">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
+      <c r="C185">
+        <v>183</v>
+      </c>
       <c r="D185">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5728,6 +5731,9 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C186">
+        <v>184</v>
+      </c>
       <c r="D186">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5745,6 +5751,9 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C187">
+        <v>185</v>
+      </c>
       <c r="D187">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5762,6 +5771,9 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C188">
+        <v>186</v>
+      </c>
       <c r="D188">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -5779,6 +5791,9 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C189">
+        <v>187</v>
+      </c>
       <c r="D189">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5796,6 +5811,9 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C190">
+        <v>188</v>
+      </c>
       <c r="D190">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5813,6 +5831,9 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C191">
+        <v>189</v>
+      </c>
       <c r="D191">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5824,12 +5845,15 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B192">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C192">
+        <v>190</v>
+      </c>
       <c r="D192">
         <f t="shared" si="9"/>
         <v>1</v>
@@ -5841,12 +5865,15 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B193">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="C193">
+        <v>191</v>
+      </c>
       <c r="D193">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -5858,11 +5885,14 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B257" si="10">LEN(A194)</f>
+        <f t="shared" ref="B194:B232" si="10">LEN(A194)</f>
         <v>6</v>
+      </c>
+      <c r="C194">
+        <v>192</v>
       </c>
       <c r="D194">
         <f t="shared" ref="D194:D232" si="11">COUNTIF($A$2:$A$299,A194)</f>
@@ -5875,12 +5905,15 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B195">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C195">
+        <v>193</v>
+      </c>
       <c r="D195">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5892,12 +5925,15 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C196">
+        <v>194</v>
+      </c>
       <c r="D196">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5909,12 +5945,15 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B197">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C197">
+        <v>195</v>
+      </c>
       <c r="D197">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5926,12 +5965,15 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B198">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C198">
+        <v>196</v>
+      </c>
       <c r="D198">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5943,12 +5985,15 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B199">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C199">
+        <v>197</v>
+      </c>
       <c r="D199">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5960,12 +6005,15 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B200">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C200">
+        <v>198</v>
+      </c>
       <c r="D200">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5977,12 +6025,15 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B201">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C201">
+        <v>199</v>
+      </c>
       <c r="D201">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -5994,12 +6045,15 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B202">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="C202">
+        <v>200</v>
+      </c>
       <c r="D202">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6017,6 +6071,9 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C203">
+        <v>201</v>
+      </c>
       <c r="D203">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6034,6 +6091,9 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C204">
+        <v>202</v>
+      </c>
       <c r="D204">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6051,6 +6111,9 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C205">
+        <v>203</v>
+      </c>
       <c r="D205">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6068,6 +6131,9 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C206">
+        <v>204</v>
+      </c>
       <c r="D206">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6079,12 +6145,15 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B207">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C207">
+        <v>205</v>
+      </c>
       <c r="D207">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6096,12 +6165,15 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B208">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C208">
+        <v>206</v>
+      </c>
       <c r="D208">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6113,12 +6185,15 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B209">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C209">
+        <v>207</v>
+      </c>
       <c r="D209">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6130,12 +6205,15 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B210">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C210">
+        <v>208</v>
+      </c>
       <c r="D210">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6147,12 +6225,15 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B211">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C211">
+        <v>209</v>
+      </c>
       <c r="D211">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6164,12 +6245,15 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B212">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C212">
+        <v>210</v>
+      </c>
       <c r="D212">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6181,12 +6265,15 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B213">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C213">
+        <v>211</v>
+      </c>
       <c r="D213">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6198,12 +6285,15 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="C214">
+        <v>212</v>
+      </c>
       <c r="D214">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6221,6 +6311,9 @@
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C215">
+        <v>213</v>
+      </c>
       <c r="D215">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -6238,6 +6331,9 @@
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C216">
+        <v>214</v>
+      </c>
       <c r="D216">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6249,29 +6345,35 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="B217">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C217">
+        <v>215</v>
+      </c>
       <c r="D217">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="7"/>
-        <v>tiktoker</v>
+        <v>TikToker</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B218">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C218">
+        <v>216</v>
+      </c>
       <c r="D218">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -6283,12 +6385,15 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B219">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C219">
+        <v>217</v>
+      </c>
       <c r="D219">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6300,12 +6405,15 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B220">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C220">
+        <v>218</v>
+      </c>
       <c r="D220">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6317,12 +6425,15 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B221">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C221">
+        <v>219</v>
+      </c>
       <c r="D221">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6334,12 +6445,15 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B222">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C222">
+        <v>220</v>
+      </c>
       <c r="D222">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6351,12 +6465,15 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B223">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
+      <c r="C223">
+        <v>221</v>
+      </c>
       <c r="D223">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6374,6 +6491,9 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="C224">
+        <v>222</v>
+      </c>
       <c r="D224">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6391,6 +6511,9 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="C225">
+        <v>223</v>
+      </c>
       <c r="D225">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6408,6 +6531,9 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="C226">
+        <v>224</v>
+      </c>
       <c r="D226">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6419,12 +6545,15 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B227">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="C227">
+        <v>225</v>
+      </c>
       <c r="D227">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6436,12 +6565,15 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B228">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="C228">
+        <v>226</v>
+      </c>
       <c r="D228">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6453,12 +6585,15 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B229">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
+      <c r="C229">
+        <v>227</v>
+      </c>
       <c r="D229">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6470,12 +6605,15 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B230">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
+      <c r="C230">
+        <v>228</v>
+      </c>
       <c r="D230">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6493,6 +6631,9 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
+      <c r="C231">
+        <v>229</v>
+      </c>
       <c r="D231">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -6504,11 +6645,14 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B232">
         <f t="shared" si="10"/>
         <v>11</v>
+      </c>
+      <c r="C232">
+        <v>230</v>
       </c>
       <c r="D232">
         <f t="shared" si="11"/>

--- a/GestureGame/GestureGame/dat/odai_ansi.xlsx
+++ b/GestureGame/GestureGame/dat/odai_ansi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gesturegame_project\GestureGame\GestureGame\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12DFBA-B90D-4338-A10C-6997FDDD2F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF053EA-43C3-4A60-9D46-9A7F5A8FB3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
   <si>
     <t>プリンセス</t>
   </si>
@@ -1095,6 +1095,40 @@
   </si>
   <si>
     <t>TikToker</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>文字数</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>配列番号</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>重複</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>記入する場所</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1748,7 +1782,27 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2035,55 +2089,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E232"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">LEN(A2)</f>
+        <f>IF($A2="","",LEN(A2))</f>
         <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="1">COUNTIF($A$2:$A$299,A2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <f>A2</f>
-        <v>傘</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <f>IF($A2="","",COUNTIF($A$2:$A$299,A2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B66" si="0">IF($A3="","",LEN(A3))</f>
         <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="2">A3</f>
-        <v>馬</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" ref="D3:D66" si="1">IF($A3="","",COUNTIF($A$2:$A$299,A3))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2098,12 +2161,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v>猫</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2118,12 +2177,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v>犬</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2138,12 +2193,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="2"/>
-        <v>魚</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2158,12 +2209,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v>牛</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -2178,12 +2225,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>猿</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -2198,12 +2241,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="2"/>
-        <v>嵐</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -2218,12 +2257,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="2"/>
-        <v>車</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2238,12 +2273,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v>ゾウ</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2258,12 +2289,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v>相撲</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2278,12 +2305,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v>歌手</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2298,12 +2321,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v>料理</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2318,12 +2337,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v>釣り</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2338,12 +2353,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v>水泳</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2358,12 +2369,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v>電車</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2378,12 +2385,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v>タコ</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2398,12 +2401,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v>DJ</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2418,12 +2417,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v>演奏</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2438,12 +2433,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>ハト</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -2458,12 +2449,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>野球</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2478,12 +2465,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v>弓道</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2498,12 +2481,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>太鼓</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2518,12 +2497,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>焚火</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -2538,12 +2513,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>電話</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2558,12 +2529,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>掃除</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -2578,12 +2545,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>洗濯</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2598,12 +2561,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>読書</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -2618,12 +2577,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v>カメ</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2638,12 +2593,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>ヘビ</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -2658,12 +2609,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>サイ</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -2678,12 +2625,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>クマ</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2698,12 +2641,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>ブタ</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -2718,12 +2657,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>ヤギ</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -2738,12 +2673,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>カニ</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -2758,12 +2689,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>ワニ</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -2778,12 +2705,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>永野</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2798,12 +2721,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>弓道</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>141</v>
       </c>
@@ -2818,12 +2737,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>釣り</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2838,12 +2753,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>電話</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -2858,12 +2769,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>ハト</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -2878,12 +2785,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>タコ</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -2898,12 +2801,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v>卓球</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>174</v>
       </c>
@@ -2918,12 +2817,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v>勉強</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -2938,12 +2833,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v>逮捕</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -2958,12 +2849,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>闘牛</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -2978,12 +2865,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v>眼鏡</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -2998,12 +2881,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v>裁縫</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -3018,12 +2897,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v>占い</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -3038,12 +2913,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v>行進</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -3058,12 +2929,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v>化粧</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -3078,12 +2945,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="2"/>
-        <v>モデル</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -3098,12 +2961,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="2"/>
-        <v>美容師</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3118,12 +2977,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="2"/>
-        <v>飛行機</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3138,12 +2993,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="2"/>
-        <v>五条悟</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -3158,12 +3009,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="2"/>
-        <v>孫悟空</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -3178,12 +3025,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="2"/>
-        <v>ギター</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -3198,12 +3041,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="2"/>
-        <v>トトロ</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -3218,12 +3057,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="2"/>
-        <v>縄跳び</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -3238,12 +3073,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="2"/>
-        <v>うさぎ</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -3258,12 +3089,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="2"/>
-        <v>指揮者</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -3278,12 +3105,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>ルフィ</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -3298,12 +3121,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="2"/>
-        <v>テニス</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -3318,3349 +3137,6174 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="2"/>
-        <v>吹奏楽</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>47</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="3">LEN(A66)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C66">
         <v>64</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="4">COUNTIF($A$2:$A$299,A66)</f>
-        <v>1</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="2"/>
-        <v>カヌー</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B67:B130" si="2">IF($A67="","",LEN(A67))</f>
         <v>3</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D67:D130" si="3">IF($A67="","",COUNTIF($A$2:$A$299,A67))</f>
         <v>2</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E82" si="5">A67</f>
-        <v>雪合戦</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>54</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="5"/>
-        <v>自転車</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>55</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C69">
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="5"/>
-        <v>ピアノ</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>58</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="5"/>
-        <v>ウマ娘</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>67</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C71">
         <v>69</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="5"/>
-        <v>ゴジラ</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C72">
         <v>70</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="5"/>
-        <v>瓦割り</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="5"/>
-        <v>消防士</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>84</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C74">
         <v>72</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="5"/>
-        <v>手洗い</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>85</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C75">
         <v>73</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="5"/>
-        <v>うがい</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>94</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C76">
         <v>74</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="5"/>
-        <v>着替え</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>95</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="5"/>
-        <v>歯磨き</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>101</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C78">
         <v>76</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="5"/>
-        <v>コアラ</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>103</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C79">
         <v>77</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="5"/>
-        <v>キリン</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>109</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C80">
         <v>78</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="5"/>
-        <v>たぬき</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>116</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C81">
         <v>79</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="5"/>
-        <v>アヒル</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>119</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C82">
         <v>80</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="5"/>
-        <v>カエル</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>122</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C83">
         <v>81</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" ref="E83:E95" si="6">A83</f>
-        <v>ゴリラ</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>127</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C84">
         <v>82</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="6"/>
-        <v>マリオ</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>137</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C85">
         <v>83</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="6"/>
-        <v>バイク</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>71</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C86">
         <v>84</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="6"/>
-        <v>雪合戦</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>142</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C87">
         <v>85</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="6"/>
-        <v>モデル</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>143</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C88">
         <v>86</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="6"/>
-        <v>ギター</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>103</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C89">
         <v>87</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="6"/>
-        <v>キリン</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>122</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C90">
         <v>88</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="6"/>
-        <v>ゴリラ</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>147</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C91">
         <v>89</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="6"/>
-        <v>お手玉</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>148</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C92">
         <v>90</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="6"/>
-        <v>編み物</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>149</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C93">
         <v>91</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="6"/>
-        <v>餅つき</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>152</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C94">
         <v>92</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="6"/>
-        <v>盆踊り</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>167</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C95">
         <v>93</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="6"/>
-        <v>類人猿</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>172</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C96">
         <v>94</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" ref="E96:E232" si="7">A96</f>
-        <v>裁判長</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>176</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C97">
         <v>95</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="7"/>
-        <v>木こり</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>183</v>
       </c>
       <c r="B98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C98">
         <v>96</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="7"/>
-        <v>窓拭き</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>184</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C99">
         <v>97</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="7"/>
-        <v>オタ芸</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>190</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C100">
         <v>98</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="7"/>
-        <v>おばけ</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>192</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C101">
         <v>99</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="7"/>
-        <v>壁ドン</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>202</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C102">
         <v>100</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="7"/>
-        <v>桃太郎</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>203</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C103">
         <v>101</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="7"/>
-        <v>金太郎</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>210</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C104">
         <v>102</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="7"/>
-        <v>歌舞伎</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>216</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C105">
         <v>103</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="7"/>
-        <v>虫取り</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>221</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C106">
         <v>104</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="7"/>
-        <v>平泳ぎ</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>6</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C107">
         <v>105</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="7"/>
-        <v>ぱっちぃ</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>11</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C108">
         <v>106</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="7"/>
-        <v>金八先生</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>16</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C109">
         <v>107</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="7"/>
-        <v>ドラマー</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>17</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C110">
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="7"/>
-        <v>円盤投げ</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>37</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C111">
         <v>109</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="7"/>
-        <v>猫ミーム</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>38</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C112">
         <v>110</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="7"/>
-        <v>サッカー</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>41</v>
       </c>
       <c r="B113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C113">
         <v>111</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="7"/>
-        <v>志村けん</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>52</v>
       </c>
       <c r="B114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C114">
         <v>112</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="7"/>
-        <v>ラッパー</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>57</v>
       </c>
       <c r="B115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C115">
         <v>113</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="7"/>
-        <v>星野アイ</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>59</v>
       </c>
       <c r="B116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C116">
         <v>114</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="7"/>
-        <v>初音ミク</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>60</v>
       </c>
       <c r="B117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C117">
         <v>115</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="7"/>
-        <v>体操選手</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>80</v>
       </c>
       <c r="B118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C118">
         <v>116</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="7"/>
-        <v>寿司職人</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>72</v>
       </c>
       <c r="B119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C119">
         <v>117</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="7"/>
-        <v>ニワトリ</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>74</v>
       </c>
       <c r="B120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C120">
         <v>118</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="7"/>
-        <v>ラグビー</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>78</v>
       </c>
       <c r="B121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C121">
         <v>119</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E121" t="str">
-        <f t="shared" si="7"/>
-        <v>酔っ払い</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>86</v>
       </c>
       <c r="B122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C122">
         <v>120</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="7"/>
-        <v>くしゃみ</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>88</v>
       </c>
       <c r="B123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C123">
         <v>121</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="7"/>
-        <v>スキップ</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>93</v>
       </c>
       <c r="B124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C124">
         <v>122</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="7"/>
-        <v>パソコン</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>96</v>
       </c>
       <c r="B125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C125">
         <v>123</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E125" t="str">
-        <f t="shared" si="7"/>
-        <v>霹靂一閃</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>107</v>
       </c>
       <c r="B126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C126">
         <v>124</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="7"/>
-        <v>ライオン</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>112</v>
       </c>
       <c r="B127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C127">
         <v>125</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="7"/>
-        <v>フクロウ</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>115</v>
       </c>
       <c r="B128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C128">
         <v>126</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="7"/>
-        <v>オオカミ</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>124</v>
       </c>
       <c r="B129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C129">
         <v>127</v>
       </c>
       <c r="D129">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="7"/>
-        <v>クワガタ</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>125</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="8">LEN(A130)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C130">
         <v>128</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D193" si="9">COUNTIF($A$2:$A$299,A130)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="7"/>
-        <v>ペンギン</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B131:B194" si="4">IF($A131="","",LEN(A131))</f>
         <v>4</v>
       </c>
       <c r="C131">
         <v>129</v>
       </c>
       <c r="D131">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" si="7"/>
-        <v>カービィ</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" ref="D131:D194" si="5">IF($A131="","",COUNTIF($A$2:$A$299,A131))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C132">
         <v>130</v>
       </c>
       <c r="D132">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="7"/>
-        <v>ロボット</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>78</v>
       </c>
       <c r="B133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C133">
         <v>131</v>
       </c>
       <c r="D133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E133" t="str">
-        <f t="shared" si="7"/>
-        <v>酔っ払い</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>86</v>
       </c>
       <c r="B134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C134">
         <v>132</v>
       </c>
       <c r="D134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E134" t="str">
-        <f t="shared" si="7"/>
-        <v>くしゃみ</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C135">
         <v>133</v>
       </c>
       <c r="D135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E135" t="str">
-        <f t="shared" si="7"/>
-        <v>霹靂一閃</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>125</v>
       </c>
       <c r="B136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C136">
         <v>134</v>
       </c>
       <c r="D136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E136" t="str">
-        <f t="shared" si="7"/>
-        <v>ペンギン</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>146</v>
       </c>
       <c r="B137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C137">
         <v>135</v>
       </c>
       <c r="D137">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E137" t="str">
-        <f t="shared" si="7"/>
-        <v>大縄跳び</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>151</v>
       </c>
       <c r="B138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C138">
         <v>136</v>
       </c>
       <c r="D138">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E138" t="str">
-        <f t="shared" si="7"/>
-        <v>日本舞踊</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>156</v>
       </c>
       <c r="B139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C139">
         <v>137</v>
       </c>
       <c r="D139">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E139" t="str">
-        <f t="shared" si="7"/>
-        <v>あやとり</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>158</v>
       </c>
       <c r="B140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C140">
         <v>138</v>
       </c>
       <c r="D140">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E140" t="str">
-        <f t="shared" si="7"/>
-        <v>ヤンキー</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>159</v>
       </c>
       <c r="B141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C141">
         <v>139</v>
       </c>
       <c r="D141">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="7"/>
-        <v>平野ノラ</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>161</v>
       </c>
       <c r="B142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C142">
         <v>140</v>
       </c>
       <c r="D142">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E142" t="str">
-        <f t="shared" si="7"/>
-        <v>ソムリエ</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>163</v>
       </c>
       <c r="B143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C143">
         <v>141</v>
       </c>
       <c r="D143">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E143" t="str">
-        <f t="shared" si="7"/>
-        <v>林修先生</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>175</v>
       </c>
       <c r="B144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C144">
         <v>142</v>
       </c>
       <c r="D144">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E144" t="str">
-        <f t="shared" si="7"/>
-        <v>交通警備</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>177</v>
       </c>
       <c r="B145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C145">
         <v>143</v>
       </c>
       <c r="D145">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E145" t="str">
-        <f t="shared" si="7"/>
-        <v>肩たたき</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>201</v>
       </c>
       <c r="B146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C146">
         <v>144</v>
       </c>
       <c r="D146">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E146" t="str">
-        <f t="shared" si="7"/>
-        <v>浦島太郎</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>186</v>
       </c>
       <c r="B147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C147">
         <v>145</v>
       </c>
       <c r="D147">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E147" t="str">
-        <f t="shared" si="7"/>
-        <v>正岡子規</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>189</v>
       </c>
       <c r="B148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C148">
         <v>146</v>
       </c>
       <c r="D148">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E148" t="str">
-        <f t="shared" si="7"/>
-        <v>レジ打ち</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>197</v>
       </c>
       <c r="B149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C149">
         <v>147</v>
       </c>
       <c r="D149">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E149" t="str">
-        <f t="shared" si="7"/>
-        <v>カマキリ</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>208</v>
       </c>
       <c r="B150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C150">
         <v>148</v>
       </c>
       <c r="D150">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E150" t="str">
-        <f t="shared" si="7"/>
-        <v>阿波踊り</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>0</v>
       </c>
       <c r="B151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C151">
         <v>149</v>
       </c>
       <c r="D151">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E151" t="str">
-        <f t="shared" si="7"/>
-        <v>プリンセス</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>4</v>
       </c>
       <c r="B152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C152">
         <v>150</v>
       </c>
       <c r="D152">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E152" t="str">
-        <f t="shared" si="7"/>
-        <v>自動販売機</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C153">
         <v>151</v>
       </c>
       <c r="D153">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E153" t="str">
-        <f t="shared" si="7"/>
-        <v>ドラえもん</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="B154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C154">
         <v>152</v>
       </c>
       <c r="D154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E154" t="str">
-        <f t="shared" si="7"/>
-        <v>ボーリング</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>13</v>
       </c>
       <c r="B155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C155">
         <v>153</v>
       </c>
       <c r="D155">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E155" t="str">
-        <f t="shared" si="7"/>
-        <v>小島よしお</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>70</v>
       </c>
       <c r="B156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C156">
         <v>154</v>
       </c>
       <c r="D156">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E156" t="str">
-        <f t="shared" si="7"/>
-        <v>フラダンス</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>18</v>
       </c>
       <c r="B157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C157">
         <v>155</v>
       </c>
       <c r="D157">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E157" t="str">
-        <f t="shared" si="7"/>
-        <v>竈門炭治郎</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>20</v>
       </c>
       <c r="B158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C158">
         <v>156</v>
       </c>
       <c r="D158">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="7"/>
-        <v>ボクシング</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>32</v>
       </c>
       <c r="B159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C159">
         <v>157</v>
       </c>
       <c r="D159">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E159" t="str">
-        <f t="shared" si="7"/>
-        <v>クロちゃん</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>33</v>
       </c>
       <c r="B160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C160">
         <v>158</v>
       </c>
       <c r="D160">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E160" t="str">
-        <f t="shared" si="7"/>
-        <v>マッシュル</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>50</v>
       </c>
       <c r="B161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C161">
         <v>159</v>
       </c>
       <c r="D161">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E161" t="str">
-        <f t="shared" si="7"/>
-        <v>プリキュア</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>56</v>
       </c>
       <c r="B162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C162">
         <v>160</v>
       </c>
       <c r="D162">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E162" t="str">
-        <f t="shared" si="7"/>
-        <v>デヴィ夫人</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>66</v>
       </c>
       <c r="B163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C163">
         <v>161</v>
       </c>
       <c r="D163">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E163" t="str">
-        <f t="shared" si="7"/>
-        <v>ムスカ大佐</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>77</v>
       </c>
       <c r="B164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C164">
         <v>162</v>
       </c>
       <c r="D164">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E164" t="str">
-        <f t="shared" si="7"/>
-        <v>サーフィン</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>82</v>
       </c>
       <c r="B165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C165">
         <v>163</v>
       </c>
       <c r="D165">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E165" t="str">
-        <f t="shared" si="7"/>
-        <v>バイオリン</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>87</v>
       </c>
       <c r="B166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C166">
         <v>164</v>
       </c>
       <c r="D166">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E166" t="str">
-        <f t="shared" si="7"/>
-        <v>ジャンケン</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>97</v>
       </c>
       <c r="B167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C167">
         <v>165</v>
       </c>
       <c r="D167">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="7"/>
-        <v>レジギガス</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>118</v>
       </c>
       <c r="B168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C168">
         <v>166</v>
       </c>
       <c r="D168">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E168" t="str">
-        <f t="shared" si="7"/>
-        <v>ハムスター</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>123</v>
       </c>
       <c r="B169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C169">
         <v>167</v>
       </c>
       <c r="D169">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E169" t="str">
-        <f t="shared" si="7"/>
-        <v>カンガルー</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>126</v>
       </c>
       <c r="B170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C170">
         <v>168</v>
       </c>
       <c r="D170">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E170" t="str">
-        <f t="shared" si="7"/>
-        <v>ナマケモノ</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>132</v>
       </c>
       <c r="B171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C171">
         <v>169</v>
       </c>
       <c r="D171">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E171" t="str">
-        <f t="shared" si="7"/>
-        <v>チーム友達</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>138</v>
       </c>
       <c r="B172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C172">
         <v>170</v>
       </c>
       <c r="D172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E172" t="str">
-        <f t="shared" si="7"/>
-        <v>ボーリング</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>153</v>
       </c>
       <c r="B173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C173">
         <v>171</v>
       </c>
       <c r="D173">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E173" t="str">
-        <f t="shared" si="7"/>
-        <v>金魚すくい</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>166</v>
       </c>
       <c r="B174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C174">
         <v>172</v>
       </c>
       <c r="D174">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="7"/>
-        <v>天気予報し</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C175">
         <v>173</v>
       </c>
       <c r="D175">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="7"/>
-        <v>サザエさん</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>181</v>
       </c>
       <c r="B176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C176">
         <v>174</v>
       </c>
       <c r="D176">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="7"/>
-        <v>EXILE</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>185</v>
       </c>
       <c r="B177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C177">
         <v>175</v>
       </c>
       <c r="D177">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="7"/>
-        <v>コイントス</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>193</v>
       </c>
       <c r="B178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C178">
         <v>176</v>
       </c>
       <c r="D178">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="7"/>
-        <v>モナ・リザ</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>196</v>
       </c>
       <c r="B179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C179">
         <v>177</v>
       </c>
       <c r="D179">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E179" t="str">
-        <f t="shared" si="7"/>
-        <v>北斗百裂拳</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>200</v>
       </c>
       <c r="B180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C180">
         <v>178</v>
       </c>
       <c r="D180">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E180" t="str">
-        <f t="shared" si="7"/>
-        <v>ふなっしー</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>213</v>
       </c>
       <c r="B181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C181">
         <v>179</v>
       </c>
       <c r="D181">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E181" t="str">
-        <f t="shared" si="7"/>
-        <v>モグラ叩き</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>214</v>
       </c>
       <c r="B182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C182">
         <v>180</v>
       </c>
       <c r="D182">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E182" t="str">
-        <f t="shared" si="7"/>
-        <v>カウボーイ</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>215</v>
       </c>
       <c r="B183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C183">
         <v>181</v>
       </c>
       <c r="D183">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E183" t="str">
-        <f t="shared" si="7"/>
-        <v>フラフープ</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>218</v>
       </c>
       <c r="B184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C184">
         <v>182</v>
       </c>
       <c r="D184">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E184" t="str">
-        <f t="shared" si="7"/>
-        <v>フラメンコ</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>220</v>
       </c>
       <c r="B185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C185">
         <v>183</v>
       </c>
       <c r="D185">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E185" t="str">
-        <f t="shared" si="7"/>
-        <v>カズダンス</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>9</v>
       </c>
       <c r="B186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C186">
         <v>184</v>
       </c>
       <c r="D186">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E186" t="str">
-        <f t="shared" si="7"/>
-        <v>アーチェリー</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>19</v>
       </c>
       <c r="B187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C187">
         <v>185</v>
       </c>
       <c r="D187">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E187" t="str">
-        <f t="shared" si="7"/>
-        <v>ジョジョ立ち</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>21</v>
       </c>
       <c r="B188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C188">
         <v>186</v>
       </c>
       <c r="D188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E188" t="str">
-        <f t="shared" si="7"/>
-        <v>バレーボール</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>27</v>
       </c>
       <c r="B189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C189">
         <v>187</v>
       </c>
       <c r="D189">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E189" t="str">
-        <f t="shared" si="7"/>
-        <v>バドミントン</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>35</v>
       </c>
       <c r="B190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C190">
         <v>188</v>
       </c>
       <c r="D190">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E190" t="str">
-        <f t="shared" si="7"/>
-        <v>江戸川コナン</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>45</v>
       </c>
       <c r="B191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C191">
         <v>189</v>
       </c>
       <c r="D191">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E191" t="str">
-        <f t="shared" si="7"/>
-        <v>アンパンマン</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>133</v>
       </c>
       <c r="B192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C192">
         <v>190</v>
       </c>
       <c r="D192">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E192" t="str">
-        <f t="shared" si="7"/>
-        <v>ヘリコプター</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>139</v>
       </c>
       <c r="B193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C193">
         <v>191</v>
       </c>
       <c r="D193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E193" t="str">
-        <f t="shared" si="7"/>
-        <v>バレーボール</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>150</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B232" si="10">LEN(A194)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C194">
         <v>192</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="D194:D232" si="11">COUNTIF($A$2:$A$299,A194)</f>
-        <v>1</v>
-      </c>
-      <c r="E194" t="str">
-        <f t="shared" si="7"/>
-        <v>タップダンス</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>164</v>
       </c>
       <c r="B195">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B195:B258" si="6">IF($A195="","",LEN(A195))</f>
         <v>6</v>
       </c>
       <c r="C195">
         <v>193</v>
       </c>
       <c r="D195">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E195" t="str">
-        <f t="shared" si="7"/>
-        <v>ビートたけし</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" ref="D195:D258" si="7">IF($A195="","",COUNTIF($A$2:$A$299,A195))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>168</v>
       </c>
       <c r="B196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C196">
         <v>194</v>
       </c>
       <c r="D196">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E196" t="str">
         <f t="shared" si="7"/>
-        <v>アラレちゃん</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>171</v>
       </c>
       <c r="B197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C197">
         <v>195</v>
       </c>
       <c r="D197">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E197" t="str">
         <f t="shared" si="7"/>
-        <v>コンビニ店員</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>178</v>
       </c>
       <c r="B198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C198">
         <v>196</v>
       </c>
       <c r="D198">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E198" t="str">
         <f t="shared" si="7"/>
-        <v>ウェイトレス</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>182</v>
       </c>
       <c r="B199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C199">
         <v>197</v>
       </c>
       <c r="D199">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E199" t="str">
         <f t="shared" si="7"/>
-        <v>バーテンダー</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>195</v>
       </c>
       <c r="B200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C200">
         <v>198</v>
       </c>
       <c r="D200">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E200" t="str">
         <f t="shared" si="7"/>
-        <v>ハンドパワー</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>211</v>
       </c>
       <c r="B201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C201">
         <v>199</v>
       </c>
       <c r="D201">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E201" t="str">
         <f t="shared" si="7"/>
-        <v>江南スタイル</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>212</v>
       </c>
       <c r="B202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C202">
         <v>200</v>
       </c>
       <c r="D202">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E202" t="str">
         <f t="shared" si="7"/>
-        <v>ウルトラマン</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>53</v>
       </c>
       <c r="B203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C203">
         <v>201</v>
       </c>
       <c r="D203">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E203" t="str">
         <f t="shared" si="7"/>
-        <v>ブルゾンちえみ</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>63</v>
       </c>
       <c r="B204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C204">
         <v>202</v>
       </c>
       <c r="D204">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E204" t="str">
         <f t="shared" si="7"/>
-        <v>ドンキーコング</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>65</v>
       </c>
       <c r="B205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C205">
         <v>203</v>
       </c>
       <c r="D205">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E205" t="str">
         <f t="shared" si="7"/>
-        <v>オードリー春日</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>68</v>
       </c>
       <c r="B206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C206">
         <v>204</v>
       </c>
       <c r="D206">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E206" t="str">
         <f t="shared" si="7"/>
-        <v>セイキンダンス</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>135</v>
       </c>
       <c r="B207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C207">
         <v>205</v>
       </c>
       <c r="D207">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E207" t="str">
         <f t="shared" si="7"/>
-        <v>エスカレーター</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>154</v>
       </c>
       <c r="B208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C208">
         <v>206</v>
       </c>
       <c r="D208">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E208" t="str">
         <f t="shared" si="7"/>
-        <v>かき氷を食べる</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>162</v>
       </c>
       <c r="B209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C209">
         <v>207</v>
       </c>
       <c r="D209">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E209" t="str">
         <f t="shared" si="7"/>
-        <v>ゴイゴイスー!</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>191</v>
       </c>
       <c r="B210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C210">
         <v>208</v>
       </c>
       <c r="D210">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E210" t="str">
         <f t="shared" si="7"/>
-        <v>マスターハンド</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>198</v>
       </c>
       <c r="B211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C211">
         <v>209</v>
       </c>
       <c r="D211">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E211" t="str">
         <f t="shared" si="7"/>
-        <v>マルモリダンス</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>204</v>
       </c>
       <c r="B212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C212">
         <v>210</v>
       </c>
       <c r="D212">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E212" t="str">
         <f t="shared" si="7"/>
-        <v>花咲かじいさん</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>206</v>
       </c>
       <c r="B213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C213">
         <v>211</v>
       </c>
       <c r="D213">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E213" t="str">
         <f t="shared" si="7"/>
-        <v>スパイダーマン</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>219</v>
       </c>
       <c r="B214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C214">
         <v>212</v>
       </c>
       <c r="D214">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E214" t="str">
         <f t="shared" si="7"/>
-        <v>コサックダンス</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>26</v>
       </c>
       <c r="B215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C215">
         <v>213</v>
       </c>
       <c r="D215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="E215" t="str">
-        <f t="shared" si="7"/>
-        <v>バスケットボール</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>40</v>
       </c>
       <c r="B216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C216">
         <v>214</v>
       </c>
       <c r="D216">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E216" t="str">
         <f t="shared" si="7"/>
-        <v>サンシャイン池崎</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>222</v>
       </c>
       <c r="B217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C217">
         <v>215</v>
       </c>
       <c r="D217">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E217" t="str">
         <f t="shared" si="7"/>
-        <v>TikToker</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>140</v>
       </c>
       <c r="B218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C218">
         <v>216</v>
       </c>
       <c r="D218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="E218" t="str">
-        <f t="shared" si="7"/>
-        <v>バスケットボール</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>155</v>
       </c>
       <c r="B219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C219">
         <v>217</v>
       </c>
       <c r="D219">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E219" t="str">
         <f t="shared" si="7"/>
-        <v>懐中電灯を照らす</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>157</v>
       </c>
       <c r="B220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C220">
         <v>218</v>
       </c>
       <c r="D220">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E220" t="str">
         <f t="shared" si="7"/>
-        <v>紙飛行機を飛ばす</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>170</v>
       </c>
       <c r="B221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C221">
         <v>219</v>
       </c>
       <c r="D221">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E221" t="str">
         <f t="shared" si="7"/>
-        <v>カーネルおじさん</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>199</v>
       </c>
       <c r="B222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C222">
         <v>220</v>
       </c>
       <c r="D222">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E222" t="str">
         <f t="shared" si="7"/>
-        <v>トリケラトプス拳</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>205</v>
       </c>
       <c r="B223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C223">
         <v>221</v>
       </c>
       <c r="D223">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E223" t="str">
         <f t="shared" si="7"/>
-        <v>厚切りジェイソン</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>31</v>
       </c>
       <c r="B224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C224">
         <v>222</v>
       </c>
       <c r="D224">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E224" t="str">
         <f t="shared" si="7"/>
-        <v>なかやまきんにくん</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>49</v>
       </c>
       <c r="B225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C225">
         <v>223</v>
       </c>
       <c r="D225">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E225" t="str">
         <f t="shared" si="7"/>
-        <v>とにかく明るい安村</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>69</v>
       </c>
       <c r="B226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C226">
         <v>224</v>
       </c>
       <c r="D226">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E226" t="str">
         <f t="shared" si="7"/>
-        <v>うさぎ(ちいかわ)</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>160</v>
       </c>
       <c r="B227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C227">
         <v>225</v>
       </c>
       <c r="D227">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E227" t="str">
         <f t="shared" si="7"/>
-        <v>ステーキを食べる人</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>165</v>
       </c>
       <c r="B228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C228">
         <v>226</v>
       </c>
       <c r="D228">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E228" t="str">
         <f t="shared" si="7"/>
-        <v>ニュースキャスター</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>217</v>
       </c>
       <c r="B229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C229">
         <v>227</v>
       </c>
       <c r="D229">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E229" t="str">
         <f t="shared" si="7"/>
-        <v>レイザーラモンHG</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>169</v>
       </c>
       <c r="B230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C230">
         <v>228</v>
       </c>
       <c r="D230">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E230" t="str">
         <f t="shared" si="7"/>
-        <v>キキ(魔女の宅急便)</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>36</v>
       </c>
       <c r="B231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C231">
         <v>229</v>
       </c>
       <c r="D231">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E231" t="str">
         <f t="shared" si="7"/>
-        <v>アリエル(ディズニー)</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>129</v>
       </c>
       <c r="B232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C232">
         <v>230</v>
       </c>
       <c r="D232">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B233" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C233">
+        <v>231</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B234" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C234">
+        <v>232</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B235" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C235">
+        <v>233</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B236" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C236">
+        <v>234</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B237" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C237">
+        <v>235</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B238" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C238">
+        <v>236</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B239" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C239">
+        <v>237</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B240" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C240">
+        <v>238</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B241" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C241">
+        <v>239</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B242" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C242">
+        <v>240</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B243" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C243">
+        <v>241</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B244" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C244">
+        <v>242</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B245" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C245">
+        <v>243</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B246" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C246">
+        <v>244</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B247" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C247">
+        <v>245</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B248" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C248">
+        <v>246</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B249" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C249">
+        <v>247</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B250" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C250">
+        <v>248</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B251" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C251">
+        <v>249</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B252" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C252">
+        <v>250</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B253" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C253">
+        <v>251</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B254" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C254">
+        <v>252</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B255" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C255">
+        <v>253</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B256" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C256">
+        <v>254</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B257" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C257">
+        <v>255</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B258" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C258">
+        <v>256</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B322" si="8">IF($A259="","",LEN(A259))</f>
+        <v/>
+      </c>
+      <c r="C259">
+        <v>257</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D322" si="9">IF($A259="","",COUNTIF($A$2:$A$299,A259))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B260" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C260">
+        <v>258</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B261" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C261">
+        <v>259</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B262" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C262">
+        <v>260</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B263" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C263">
+        <v>261</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B264" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C264">
+        <v>262</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B265" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C265">
+        <v>263</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B266" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C266">
+        <v>264</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B267" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C267">
+        <v>265</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B268" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C268">
+        <v>266</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B269" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C269">
+        <v>267</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B270" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C270">
+        <v>268</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B271" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C271">
+        <v>269</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B272" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C272">
+        <v>270</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B273" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C273">
+        <v>271</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B274" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C274">
+        <v>272</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B275" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C275">
+        <v>273</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B276" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C276">
+        <v>274</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B277" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C277">
+        <v>275</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B278" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C278">
+        <v>276</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B279" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C279">
+        <v>277</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B280" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C280">
+        <v>278</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B281" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C281">
+        <v>279</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B282" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C282">
+        <v>280</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B283" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C283">
+        <v>281</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B284" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C284">
+        <v>282</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B285" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C285">
+        <v>283</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B286" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C286">
+        <v>284</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B287" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C287">
+        <v>285</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B288" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C288">
+        <v>286</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B289" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C289">
+        <v>287</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B290" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C290">
+        <v>288</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B291" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C291">
+        <v>289</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B292" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C292">
+        <v>290</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B293" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C293">
+        <v>291</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B294" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C294">
+        <v>292</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B295" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C295">
+        <v>293</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B296" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C296">
+        <v>294</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B297" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C297">
+        <v>295</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B298" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C298">
+        <v>296</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B299" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C299">
+        <v>297</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B300" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C300">
+        <v>298</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B301" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C301">
+        <v>299</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B302" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C302">
+        <v>300</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B303" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C303">
+        <v>301</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B304" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C304">
+        <v>302</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B305" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C305">
+        <v>303</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B306" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C306">
+        <v>304</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B307" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C307">
+        <v>305</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B308" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C308">
+        <v>306</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B309" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C309">
+        <v>307</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B310" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C310">
+        <v>308</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B311" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C311">
+        <v>309</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B312" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C312">
+        <v>310</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B313" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C313">
+        <v>311</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B314" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C314">
+        <v>312</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B315" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C315">
+        <v>313</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B316" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C316">
+        <v>314</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B317" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C317">
+        <v>315</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B318" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C318">
+        <v>316</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B319" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C319">
+        <v>317</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B320" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C320">
+        <v>318</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B321" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C321">
+        <v>319</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B322" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C322">
+        <v>320</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B323" t="str">
+        <f t="shared" ref="B323:B386" si="10">IF($A323="","",LEN(A323))</f>
+        <v/>
+      </c>
+      <c r="C323">
+        <v>321</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" ref="D323:D386" si="11">IF($A323="","",COUNTIF($A$2:$A$299,A323))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B324" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C324">
+        <v>322</v>
+      </c>
+      <c r="D324" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="E232" t="str">
-        <f t="shared" si="7"/>
-        <v>ドナルド・マクドナルド</v>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B325" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C325">
+        <v>323</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B326" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C326">
+        <v>324</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B327" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C327">
+        <v>325</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B328" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C328">
+        <v>326</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B329" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C329">
+        <v>327</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B330" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C330">
+        <v>328</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B331" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C331">
+        <v>329</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B332" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C332">
+        <v>330</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B333" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C333">
+        <v>331</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B334" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C334">
+        <v>332</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B335" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C335">
+        <v>333</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B336" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C336">
+        <v>334</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B337" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C337">
+        <v>335</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B338" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C338">
+        <v>336</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B339" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C339">
+        <v>337</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B340" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C340">
+        <v>338</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B341" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C341">
+        <v>339</v>
+      </c>
+      <c r="D341" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B342" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C342">
+        <v>340</v>
+      </c>
+      <c r="D342" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B343" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C343">
+        <v>341</v>
+      </c>
+      <c r="D343" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B344" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C344">
+        <v>342</v>
+      </c>
+      <c r="D344" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B345" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C345">
+        <v>343</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B346" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C346">
+        <v>344</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B347" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C347">
+        <v>345</v>
+      </c>
+      <c r="D347" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B348" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C348">
+        <v>346</v>
+      </c>
+      <c r="D348" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B349" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C349">
+        <v>347</v>
+      </c>
+      <c r="D349" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B350" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C350">
+        <v>348</v>
+      </c>
+      <c r="D350" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B351" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C351">
+        <v>349</v>
+      </c>
+      <c r="D351" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B352" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C352">
+        <v>350</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B353" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C353">
+        <v>351</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B354" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C354">
+        <v>352</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B355" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C355">
+        <v>353</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B356" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C356">
+        <v>354</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B357" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C357">
+        <v>355</v>
+      </c>
+      <c r="D357" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B358" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C358">
+        <v>356</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B359" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C359">
+        <v>357</v>
+      </c>
+      <c r="D359" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B360" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C360">
+        <v>358</v>
+      </c>
+      <c r="D360" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B361" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C361">
+        <v>359</v>
+      </c>
+      <c r="D361" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B362" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C362">
+        <v>360</v>
+      </c>
+      <c r="D362" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B363" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C363">
+        <v>361</v>
+      </c>
+      <c r="D363" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B364" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C364">
+        <v>362</v>
+      </c>
+      <c r="D364" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B365" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C365">
+        <v>363</v>
+      </c>
+      <c r="D365" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B366" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C366">
+        <v>364</v>
+      </c>
+      <c r="D366" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B367" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C367">
+        <v>365</v>
+      </c>
+      <c r="D367" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B368" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C368">
+        <v>366</v>
+      </c>
+      <c r="D368" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B369" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C369">
+        <v>367</v>
+      </c>
+      <c r="D369" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B370" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C370">
+        <v>368</v>
+      </c>
+      <c r="D370" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B371" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C371">
+        <v>369</v>
+      </c>
+      <c r="D371" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B372" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C372">
+        <v>370</v>
+      </c>
+      <c r="D372" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B373" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C373">
+        <v>371</v>
+      </c>
+      <c r="D373" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B374" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C374">
+        <v>372</v>
+      </c>
+      <c r="D374" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B375" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C375">
+        <v>373</v>
+      </c>
+      <c r="D375" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B376" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C376">
+        <v>374</v>
+      </c>
+      <c r="D376" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B377" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C377">
+        <v>375</v>
+      </c>
+      <c r="D377" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B378" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C378">
+        <v>376</v>
+      </c>
+      <c r="D378" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B379" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C379">
+        <v>377</v>
+      </c>
+      <c r="D379" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B380" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C380">
+        <v>378</v>
+      </c>
+      <c r="D380" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B381" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C381">
+        <v>379</v>
+      </c>
+      <c r="D381" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B382" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C382">
+        <v>380</v>
+      </c>
+      <c r="D382" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B383" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C383">
+        <v>381</v>
+      </c>
+      <c r="D383" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B384" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C384">
+        <v>382</v>
+      </c>
+      <c r="D384" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B385" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C385">
+        <v>383</v>
+      </c>
+      <c r="D385" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B386" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C386">
+        <v>384</v>
+      </c>
+      <c r="D386" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B387" t="str">
+        <f t="shared" ref="B387:B450" si="12">IF($A387="","",LEN(A387))</f>
+        <v/>
+      </c>
+      <c r="C387">
+        <v>385</v>
+      </c>
+      <c r="D387" t="str">
+        <f t="shared" ref="D387:D450" si="13">IF($A387="","",COUNTIF($A$2:$A$299,A387))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B388" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C388">
+        <v>386</v>
+      </c>
+      <c r="D388" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B389" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C389">
+        <v>387</v>
+      </c>
+      <c r="D389" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B390" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C390">
+        <v>388</v>
+      </c>
+      <c r="D390" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B391" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C391">
+        <v>389</v>
+      </c>
+      <c r="D391" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B392" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C392">
+        <v>390</v>
+      </c>
+      <c r="D392" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B393" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C393">
+        <v>391</v>
+      </c>
+      <c r="D393" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B394" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C394">
+        <v>392</v>
+      </c>
+      <c r="D394" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B395" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C395">
+        <v>393</v>
+      </c>
+      <c r="D395" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B396" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C396">
+        <v>394</v>
+      </c>
+      <c r="D396" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B397" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C397">
+        <v>395</v>
+      </c>
+      <c r="D397" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B398" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C398">
+        <v>396</v>
+      </c>
+      <c r="D398" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B399" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C399">
+        <v>397</v>
+      </c>
+      <c r="D399" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B400" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C400">
+        <v>398</v>
+      </c>
+      <c r="D400" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B401" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C401">
+        <v>399</v>
+      </c>
+      <c r="D401" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B402" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C402">
+        <v>400</v>
+      </c>
+      <c r="D402" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B403" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C403">
+        <v>401</v>
+      </c>
+      <c r="D403" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B404" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C404">
+        <v>402</v>
+      </c>
+      <c r="D404" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B405" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C405">
+        <v>403</v>
+      </c>
+      <c r="D405" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B406" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C406">
+        <v>404</v>
+      </c>
+      <c r="D406" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B407" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C407">
+        <v>405</v>
+      </c>
+      <c r="D407" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B408" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C408">
+        <v>406</v>
+      </c>
+      <c r="D408" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B409" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C409">
+        <v>407</v>
+      </c>
+      <c r="D409" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B410" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C410">
+        <v>408</v>
+      </c>
+      <c r="D410" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B411" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C411">
+        <v>409</v>
+      </c>
+      <c r="D411" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B412" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C412">
+        <v>410</v>
+      </c>
+      <c r="D412" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B413" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C413">
+        <v>411</v>
+      </c>
+      <c r="D413" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B414" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C414">
+        <v>412</v>
+      </c>
+      <c r="D414" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B415" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C415">
+        <v>413</v>
+      </c>
+      <c r="D415" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B416" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C416">
+        <v>414</v>
+      </c>
+      <c r="D416" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B417" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C417">
+        <v>415</v>
+      </c>
+      <c r="D417" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B418" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C418">
+        <v>416</v>
+      </c>
+      <c r="D418" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B419" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C419">
+        <v>417</v>
+      </c>
+      <c r="D419" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B420" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C420">
+        <v>418</v>
+      </c>
+      <c r="D420" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B421" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C421">
+        <v>419</v>
+      </c>
+      <c r="D421" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B422" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C422">
+        <v>420</v>
+      </c>
+      <c r="D422" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B423" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C423">
+        <v>421</v>
+      </c>
+      <c r="D423" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B424" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C424">
+        <v>422</v>
+      </c>
+      <c r="D424" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B425" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C425">
+        <v>423</v>
+      </c>
+      <c r="D425" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B426" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C426">
+        <v>424</v>
+      </c>
+      <c r="D426" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B427" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C427">
+        <v>425</v>
+      </c>
+      <c r="D427" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B428" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C428">
+        <v>426</v>
+      </c>
+      <c r="D428" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B429" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C429">
+        <v>427</v>
+      </c>
+      <c r="D429" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B430" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C430">
+        <v>428</v>
+      </c>
+      <c r="D430" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B431" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C431">
+        <v>429</v>
+      </c>
+      <c r="D431" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B432" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C432">
+        <v>430</v>
+      </c>
+      <c r="D432" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B433" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C433">
+        <v>431</v>
+      </c>
+      <c r="D433" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B434" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C434">
+        <v>432</v>
+      </c>
+      <c r="D434" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B435" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C435">
+        <v>433</v>
+      </c>
+      <c r="D435" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B436" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C436">
+        <v>434</v>
+      </c>
+      <c r="D436" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B437" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C437">
+        <v>435</v>
+      </c>
+      <c r="D437" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B438" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C438">
+        <v>436</v>
+      </c>
+      <c r="D438" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B439" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C439">
+        <v>437</v>
+      </c>
+      <c r="D439" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B440" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C440">
+        <v>438</v>
+      </c>
+      <c r="D440" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B441" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C441">
+        <v>439</v>
+      </c>
+      <c r="D441" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B442" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C442">
+        <v>440</v>
+      </c>
+      <c r="D442" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B443" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C443">
+        <v>441</v>
+      </c>
+      <c r="D443" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B444" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C444">
+        <v>442</v>
+      </c>
+      <c r="D444" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B445" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C445">
+        <v>443</v>
+      </c>
+      <c r="D445" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B446" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C446">
+        <v>444</v>
+      </c>
+      <c r="D446" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B447" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C447">
+        <v>445</v>
+      </c>
+      <c r="D447" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B448" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C448">
+        <v>446</v>
+      </c>
+      <c r="D448" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B449" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C449">
+        <v>447</v>
+      </c>
+      <c r="D449" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B450" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C450">
+        <v>448</v>
+      </c>
+      <c r="D450" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B451" t="str">
+        <f t="shared" ref="B451:B501" si="14">IF($A451="","",LEN(A451))</f>
+        <v/>
+      </c>
+      <c r="C451">
+        <v>449</v>
+      </c>
+      <c r="D451" t="str">
+        <f t="shared" ref="D451:D501" si="15">IF($A451="","",COUNTIF($A$2:$A$299,A451))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B452" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C452">
+        <v>450</v>
+      </c>
+      <c r="D452" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B453" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C453">
+        <v>451</v>
+      </c>
+      <c r="D453" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B454" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C454">
+        <v>452</v>
+      </c>
+      <c r="D454" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B455" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C455">
+        <v>453</v>
+      </c>
+      <c r="D455" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B456" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C456">
+        <v>454</v>
+      </c>
+      <c r="D456" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B457" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C457">
+        <v>455</v>
+      </c>
+      <c r="D457" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B458" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C458">
+        <v>456</v>
+      </c>
+      <c r="D458" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B459" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C459">
+        <v>457</v>
+      </c>
+      <c r="D459" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B460" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C460">
+        <v>458</v>
+      </c>
+      <c r="D460" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B461" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C461">
+        <v>459</v>
+      </c>
+      <c r="D461" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B462" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C462">
+        <v>460</v>
+      </c>
+      <c r="D462" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B463" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C463">
+        <v>461</v>
+      </c>
+      <c r="D463" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B464" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C464">
+        <v>462</v>
+      </c>
+      <c r="D464" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B465" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C465">
+        <v>463</v>
+      </c>
+      <c r="D465" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B466" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C466">
+        <v>464</v>
+      </c>
+      <c r="D466" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B467" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C467">
+        <v>465</v>
+      </c>
+      <c r="D467" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B468" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C468">
+        <v>466</v>
+      </c>
+      <c r="D468" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B469" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C469">
+        <v>467</v>
+      </c>
+      <c r="D469" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B470" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C470">
+        <v>468</v>
+      </c>
+      <c r="D470" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B471" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C471">
+        <v>469</v>
+      </c>
+      <c r="D471" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B472" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C472">
+        <v>470</v>
+      </c>
+      <c r="D472" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B473" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C473">
+        <v>471</v>
+      </c>
+      <c r="D473" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B474" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C474">
+        <v>472</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B475" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C475">
+        <v>473</v>
+      </c>
+      <c r="D475" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B476" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C476">
+        <v>474</v>
+      </c>
+      <c r="D476" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B477" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C477">
+        <v>475</v>
+      </c>
+      <c r="D477" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B478" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C478">
+        <v>476</v>
+      </c>
+      <c r="D478" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B479" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C479">
+        <v>477</v>
+      </c>
+      <c r="D479" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B480" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C480">
+        <v>478</v>
+      </c>
+      <c r="D480" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B481" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C481">
+        <v>479</v>
+      </c>
+      <c r="D481" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B482" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C482">
+        <v>480</v>
+      </c>
+      <c r="D482" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B483" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C483">
+        <v>481</v>
+      </c>
+      <c r="D483" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B484" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C484">
+        <v>482</v>
+      </c>
+      <c r="D484" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B485" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C485">
+        <v>483</v>
+      </c>
+      <c r="D485" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B486" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C486">
+        <v>484</v>
+      </c>
+      <c r="D486" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B487" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C487">
+        <v>485</v>
+      </c>
+      <c r="D487" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B488" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C488">
+        <v>486</v>
+      </c>
+      <c r="D488" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B489" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C489">
+        <v>487</v>
+      </c>
+      <c r="D489" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B490" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C490">
+        <v>488</v>
+      </c>
+      <c r="D490" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B491" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C491">
+        <v>489</v>
+      </c>
+      <c r="D491" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B492" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C492">
+        <v>490</v>
+      </c>
+      <c r="D492" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B493" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C493">
+        <v>491</v>
+      </c>
+      <c r="D493" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B494" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C494">
+        <v>492</v>
+      </c>
+      <c r="D494" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B495" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C495">
+        <v>493</v>
+      </c>
+      <c r="D495" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B496" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C496">
+        <v>494</v>
+      </c>
+      <c r="D496" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B497" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C497">
+        <v>495</v>
+      </c>
+      <c r="D497" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B498" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C498">
+        <v>496</v>
+      </c>
+      <c r="D498" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B499" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C499">
+        <v>497</v>
+      </c>
+      <c r="D499" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B500" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C500">
+        <v>498</v>
+      </c>
+      <c r="D500" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B501" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C501">
+        <v>499</v>
+      </c>
+      <c r="D501" t="str">
+        <f t="shared" si="15"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6670,8 +9314,8 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="D2:D232">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D2:D501">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GestureGame/GestureGame/dat/odai_ansi.xlsx
+++ b/GestureGame/GestureGame/dat/odai_ansi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gesturegame_project\GestureGame\GestureGame\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF053EA-43C3-4A60-9D46-9A7F5A8FB3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39DE8F-1CAF-429D-BD11-78C170AE013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1782,27 +1782,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2092,12 +2072,12 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -9315,7 +9295,7 @@
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="D2:D501">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
